--- a/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
+++ b/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA299"/>
+  <dimension ref="A1:BB299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -865,6 +870,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1030,6 +1040,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1195,6 +1210,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1360,6 +1380,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1525,6 +1550,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1690,6 +1720,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1855,6 +1890,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2020,6 +2060,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2185,6 +2230,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2350,6 +2400,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2515,6 +2570,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2680,6 +2740,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2845,6 +2910,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3010,6 +3080,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3175,6 +3250,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3340,6 +3420,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3505,6 +3590,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3670,6 +3760,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3835,6 +3930,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4000,6 +4100,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4165,6 +4270,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4330,6 +4440,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4495,6 +4610,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4660,6 +4780,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4825,6 +4950,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4990,6 +5120,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5155,6 +5290,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5320,6 +5460,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5485,6 +5630,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5650,6 +5800,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5815,6 +5970,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -5980,6 +6140,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6145,6 +6310,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6310,6 +6480,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6475,6 +6650,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6640,6 +6820,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -6805,6 +6990,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -6970,6 +7160,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7135,6 +7330,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -7300,6 +7500,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7465,6 +7670,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7630,6 +7840,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7795,6 +8010,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -7960,6 +8180,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8125,6 +8350,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8290,6 +8520,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -8455,6 +8690,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8620,6 +8860,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -8785,6 +9030,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -8950,6 +9200,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB51" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9115,6 +9370,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9280,6 +9540,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB53" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9445,6 +9710,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9610,6 +9880,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB55" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -9775,6 +10050,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB56" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -9940,6 +10220,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB57" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10105,6 +10390,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB58" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10270,6 +10560,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10435,6 +10730,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10600,6 +10900,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10765,6 +11070,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB62" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -10930,6 +11240,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB63" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -11095,6 +11410,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB64" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -11260,6 +11580,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB65" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11425,6 +11750,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB66" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -11590,6 +11920,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -11755,6 +12090,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB68" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -11920,6 +12260,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB69" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12085,6 +12430,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB70" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -12250,6 +12600,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB71" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12415,6 +12770,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB72" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12580,6 +12940,11 @@
           <t>g__Anaeromassilibacillus</t>
         </is>
       </c>
+      <c r="BB73" t="inlineStr">
+        <is>
+          <t>g__Anaeromassilibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -12745,6 +13110,11 @@
           <t>g__UMGS172</t>
         </is>
       </c>
+      <c r="BB74" t="inlineStr">
+        <is>
+          <t>g__UMGS172(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -12910,6 +13280,11 @@
           <t>g__UBA1081</t>
         </is>
       </c>
+      <c r="BB75" t="inlineStr">
+        <is>
+          <t>g__UBA1081(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -13075,6 +13450,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB76" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -13240,6 +13620,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB77" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13405,6 +13790,11 @@
           <t>g__Acutalibacter</t>
         </is>
       </c>
+      <c r="BB78" t="inlineStr">
+        <is>
+          <t>g__Acutalibacter</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -13570,6 +13960,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB79" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -13735,6 +14130,11 @@
           <t>g__Pseudoruminococcus</t>
         </is>
       </c>
+      <c r="BB80" t="inlineStr">
+        <is>
+          <t>g__Pseudoruminococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -13900,6 +14300,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB81" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -14065,6 +14470,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -14230,6 +14640,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB83" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -14395,6 +14810,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -14560,6 +14980,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB85" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -14725,6 +15150,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB86" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -14890,6 +15320,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB87" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -15055,6 +15490,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -15220,6 +15660,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -15385,6 +15830,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -15550,6 +16000,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -15715,6 +16170,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -15880,6 +16340,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16045,6 +16510,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB94" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16210,6 +16680,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB95" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16375,6 +16850,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16540,6 +17020,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB97" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16705,6 +17190,11 @@
           <t>g__Pseudoruminococcus</t>
         </is>
       </c>
+      <c r="BB98" t="inlineStr">
+        <is>
+          <t>g__Pseudoruminococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16870,6 +17360,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB99" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -17035,6 +17530,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB100" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -17200,6 +17700,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB101" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -17365,6 +17870,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -17530,6 +18040,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB103" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -17695,6 +18210,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB104" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -17860,6 +18380,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB105" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -18025,6 +18550,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB106" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -18190,6 +18720,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB107" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -18355,6 +18890,11 @@
           <t>g__UMGS1491</t>
         </is>
       </c>
+      <c r="BB108" t="inlineStr">
+        <is>
+          <t>g__UMGS1491(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -18520,6 +19060,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -18685,6 +19230,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB110" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -18850,6 +19400,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB111" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -19015,6 +19570,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB112" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -19180,6 +19740,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB113" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -19345,6 +19910,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -19510,6 +20080,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -19675,6 +20250,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB116" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -19840,6 +20420,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB117" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -20005,6 +20590,11 @@
           <t>g__UBA1081</t>
         </is>
       </c>
+      <c r="BB118" t="inlineStr">
+        <is>
+          <t>g__UBA1081(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -20170,6 +20760,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB119" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -20335,6 +20930,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB120" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -20500,6 +21100,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB121" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -20665,6 +21270,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB122" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -20830,6 +21440,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB123" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -20995,6 +21610,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB124" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -21160,6 +21780,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB125" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -21325,6 +21950,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB126" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -21490,6 +22120,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB127" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -21655,6 +22290,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB128" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -21820,6 +22460,11 @@
           <t>g__Pseudoruminococcus</t>
         </is>
       </c>
+      <c r="BB129" t="inlineStr">
+        <is>
+          <t>g__Pseudoruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -21985,6 +22630,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB130" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -22150,6 +22800,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB131" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -22315,6 +22970,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB132" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -22480,6 +23140,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB133" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -22645,6 +23310,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB134" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -22810,6 +23480,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB135" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -22975,6 +23650,11 @@
           <t>g__CAG-964</t>
         </is>
       </c>
+      <c r="BB136" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -23140,6 +23820,11 @@
           <t>g__UMGS1858</t>
         </is>
       </c>
+      <c r="BB137" t="inlineStr">
+        <is>
+          <t>g__UMGS1858(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -23305,6 +23990,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB138" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -23470,6 +24160,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB139" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -23635,6 +24330,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB140" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -23800,6 +24500,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB141" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -23965,6 +24670,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB142" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -24130,6 +24840,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB143" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -24295,6 +25010,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB144" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -24460,6 +25180,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB145" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -24625,6 +25350,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB146" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -24790,6 +25520,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB147" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -24955,6 +25690,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB148" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -25120,6 +25860,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB149" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -25285,6 +26030,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB150" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -25450,6 +26200,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB151" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -25615,6 +26370,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB152" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -25780,6 +26540,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB153" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -25945,6 +26710,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB154" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -26110,6 +26880,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB155" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -26275,6 +27050,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB156" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -26440,6 +27220,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB157" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -26605,6 +27390,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB158" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -26770,6 +27560,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB159" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -26935,6 +27730,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB160" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -27100,6 +27900,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB161" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -27265,6 +28070,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB162" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -27430,6 +28240,11 @@
           <t>g__Pseudoruminococcus</t>
         </is>
       </c>
+      <c r="BB163" t="inlineStr">
+        <is>
+          <t>g__Pseudoruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -27595,6 +28410,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB164" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -27760,6 +28580,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB165" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -27925,6 +28750,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB166" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -28090,6 +28920,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB167" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -28255,6 +29090,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB168" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -28420,6 +29260,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB169" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -28585,6 +29430,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB170" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -28750,6 +29600,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB171" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -28915,6 +29770,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB172" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -29080,6 +29940,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB173" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -29245,6 +30110,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB174" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -29410,6 +30280,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB175" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -29575,6 +30450,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB176" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -29740,6 +30620,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB177" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -29905,6 +30790,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB178" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -30070,6 +30960,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB179" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -30235,6 +31130,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB180" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -30400,6 +31300,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB181" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -30565,6 +31470,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB182" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -30730,6 +31640,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB183" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -30895,6 +31810,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB184" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -31060,6 +31980,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB185" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -31225,6 +32150,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB186" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -31390,6 +32320,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB187" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -31555,6 +32490,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB188" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -31720,6 +32660,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB189" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -31885,6 +32830,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB190" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -32050,6 +33000,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB191" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -32215,6 +33170,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB192" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -32380,6 +33340,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB193" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -32545,6 +33510,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB194" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -32710,6 +33680,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB195" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -32875,6 +33850,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB196" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -33040,6 +34020,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB197" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -33205,6 +34190,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB198" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -33370,6 +34360,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB199" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -33535,6 +34530,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB200" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -33700,6 +34700,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB201" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -33865,6 +34870,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB202" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -34030,6 +35040,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB203" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -34195,6 +35210,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB204" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -34360,6 +35380,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB205" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -34525,6 +35550,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB206" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -34690,6 +35720,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB207" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -34855,6 +35890,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB208" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -35020,6 +36060,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB209" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -35185,6 +36230,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB210" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -35350,6 +36400,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB211" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -35515,6 +36570,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB212" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -35680,6 +36740,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB213" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -35845,6 +36910,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB214" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -36010,6 +37080,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB215" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -36175,6 +37250,11 @@
           <t>g__UMGS263</t>
         </is>
       </c>
+      <c r="BB216" t="inlineStr">
+        <is>
+          <t>g__UMGS263(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -36340,6 +37420,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB217" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -36505,6 +37590,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB218" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -36670,6 +37760,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB219" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -36835,6 +37930,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB220" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -37000,6 +38100,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB221" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -37165,6 +38270,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB222" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -37330,6 +38440,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB223" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -37495,6 +38610,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB224" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -37660,6 +38780,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB225" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -37825,6 +38950,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB226" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -37990,6 +39120,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB227" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -38155,6 +39290,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB228" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -38320,6 +39460,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB229" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -38485,6 +39630,11 @@
           <t>g__UBA1081</t>
         </is>
       </c>
+      <c r="BB230" t="inlineStr">
+        <is>
+          <t>g__UBA1081(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -38650,6 +39800,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB231" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -38815,6 +39970,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB232" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -38980,6 +40140,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB233" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -39145,6 +40310,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB234" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -39310,6 +40480,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB235" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -39475,6 +40650,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="BB236" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -39640,6 +40820,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB237" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -39805,6 +40990,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB238" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -39970,6 +41160,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB239" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -40135,6 +41330,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB240" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -40300,6 +41500,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB241" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -40465,6 +41670,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB242" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -40630,6 +41840,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB243" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -40795,6 +42010,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB244" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -40960,6 +42180,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB245" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -41125,6 +42350,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB246" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -41290,6 +42520,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB247" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -41455,6 +42690,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB248" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -41620,6 +42860,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB249" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -41785,6 +43030,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB250" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -41950,6 +43200,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB251" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -42115,6 +43370,11 @@
           <t>g__CAG-488</t>
         </is>
       </c>
+      <c r="BB252" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -42280,6 +43540,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB253" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -42445,6 +43710,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB254" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -42610,6 +43880,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB255" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -42775,6 +44050,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB256" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -42940,6 +44220,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB257" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -43105,6 +44390,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB258" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -43270,6 +44560,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB259" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -43435,6 +44730,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB260" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -43600,6 +44900,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB261" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -43765,6 +45070,11 @@
           <t>g__UMGS905</t>
         </is>
       </c>
+      <c r="BB262" t="inlineStr">
+        <is>
+          <t>g__UMGS905(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -43930,6 +45240,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB263" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -44095,6 +45410,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB264" t="inlineStr">
+        <is>
+          <t>g__CAG-177(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -44260,6 +45580,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB265" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -44425,6 +45750,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB266" t="inlineStr">
+        <is>
+          <t>g__CAG-177(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -44590,6 +45920,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB267" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -44755,6 +46090,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB268" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -44920,6 +46260,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB269" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -45085,6 +46430,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB270" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -45250,6 +46600,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB271" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -45415,6 +46770,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB272" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -45580,6 +46940,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB273" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -45745,6 +47110,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB274" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -45910,6 +47280,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB275" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -46075,6 +47450,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB276" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -46240,6 +47620,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB277" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -46405,6 +47790,11 @@
           <t>g__Pseudoruminococcus</t>
         </is>
       </c>
+      <c r="BB278" t="inlineStr">
+        <is>
+          <t>g__Pseudoruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -46570,6 +47960,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB279" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -46735,6 +48130,11 @@
           <t>g__UMGS403</t>
         </is>
       </c>
+      <c r="BB280" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -46900,6 +48300,11 @@
           <t>g__Clostridium_A</t>
         </is>
       </c>
+      <c r="BB281" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -47065,6 +48470,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="BB282" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -47230,6 +48640,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB283" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -47395,6 +48810,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB284" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -47560,6 +48980,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB285" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -47725,6 +49150,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB286" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -47890,6 +49320,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB287" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -48055,6 +49490,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB288" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -48220,6 +49660,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB289" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -48385,6 +49830,11 @@
           <t>g__UBA1417</t>
         </is>
       </c>
+      <c r="BB290" t="inlineStr">
+        <is>
+          <t>g__UBA1417(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -48550,6 +50000,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB291" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -48715,6 +50170,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB292" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -48880,6 +50340,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB293" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -49045,6 +50510,11 @@
           <t>g__CAG-177</t>
         </is>
       </c>
+      <c r="BB294" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -49210,6 +50680,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="BB295" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -49375,6 +50850,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB296" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -49540,6 +51020,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB297" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -49705,6 +51190,11 @@
           <t>g__CAG-217</t>
         </is>
       </c>
+      <c r="BB298" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -49866,6 +51356,11 @@
         <v>0.9762850537063769</v>
       </c>
       <c r="BA299" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB299" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>

--- a/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
+++ b/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="f__Acutalibacteraceae_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ348"/>
+  <dimension ref="A1:BB348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,269 +435,279 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-g__Acutalibacter</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-g__An172</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-g__Anaeromassilibacillus</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-g__CAG-177</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-g__CAG-180</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-g__CAG-217</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-g__CAG-488</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-g__CAG-557</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-g__CAG-964</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-g__Caproiciproducens</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-g__Clostridium_A</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-g__Clostridium_E</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13-g__DTU089</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>14-g__Eubacterium_R</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>15-g__Hydrogeniiclostridium</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>16-g__Marseille-P4683</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>17-g__Pseudoruminococcus</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>18-g__RUG420</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>19-g__RUG806</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>20-g__Ruminococcus_E</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>21-g__UBA1081</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>22-g__UBA1227</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>23-g__UBA1417</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>24-g__UBA1691</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>25-g__UBA4871</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>26-g__UBA5905</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>27-g__UBA6857</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>28-g__UBA737</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>29-g__UBA945</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30-g__UMGS1071</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31-g__UMGS1224</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>32-g__UMGS1279</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>33-g__UMGS1397</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>34-g__UMGS1474</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>35-g__UMGS1484</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>36-g__UMGS1487</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>37-g__UMGS1491</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>38-g__UMGS1532</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>39-g__UMGS1591</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>40-g__UMGS1623</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>41-g__UMGS1690</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>42-g__UMGS172</t>
         </is>
       </c>
-      <c r="AR1" s="3" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>43-g__UMGS1839</t>
         </is>
       </c>
-      <c r="AS1" s="3" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>44-g__UMGS1858</t>
         </is>
       </c>
-      <c r="AT1" s="3" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>45-g__UMGS1976</t>
         </is>
       </c>
-      <c r="AU1" s="3" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>46-g__UMGS263</t>
         </is>
       </c>
-      <c r="AV1" s="3" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>47-g__UMGS403</t>
         </is>
       </c>
-      <c r="AW1" s="3" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>48-g__UMGS577</t>
         </is>
       </c>
-      <c r="AX1" s="3" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>49-g__UMGS856</t>
         </is>
       </c>
-      <c r="AY1" s="3" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>50-g__UMGS905</t>
         </is>
       </c>
-      <c r="AZ1" s="3" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10094.fa</t>
         </is>
@@ -863,14 +862,22 @@
       <c r="AY2" t="n">
         <v>3.422819774175595e-11</v>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="AZ2" t="n">
+        <v>0.9806039964739832</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10262.fa</t>
         </is>
@@ -1025,14 +1032,22 @@
       <c r="AY3" t="n">
         <v>5.093061103108491e-09</v>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="AZ3" t="n">
+        <v>0.9808265780492281</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10454.fa</t>
         </is>
@@ -1187,14 +1202,22 @@
       <c r="AY4" t="n">
         <v>6.548443737747177e-10</v>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="AZ4" t="n">
+        <v>0.9303973289839834</v>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10584.fa</t>
         </is>
@@ -1349,14 +1372,22 @@
       <c r="AY5" t="n">
         <v>5.430027156257493e-11</v>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="AZ5" t="n">
+        <v>0.8911171224736391</v>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10599.fa</t>
         </is>
@@ -1511,14 +1542,22 @@
       <c r="AY6" t="n">
         <v>3.080843528724533e-09</v>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="AZ6" t="n">
+        <v>0.9870608405961984</v>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10606.fa</t>
         </is>
@@ -1673,14 +1712,22 @@
       <c r="AY7" t="n">
         <v>2.72241954050606e-06</v>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="AZ7" t="n">
+        <v>0.8584568535312277</v>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10629.fa</t>
         </is>
@@ -1835,14 +1882,22 @@
       <c r="AY8" t="n">
         <v>1.142378681948599e-10</v>
       </c>
-      <c r="AZ8" t="inlineStr">
+      <c r="AZ8" t="n">
+        <v>0.9450674340003531</v>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10635.fa</t>
         </is>
@@ -1997,14 +2052,22 @@
       <c r="AY9" t="n">
         <v>5.93694426749593e-06</v>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="AZ9" t="n">
+        <v>0.9671367574703131</v>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10653.fa</t>
         </is>
@@ -2159,14 +2222,22 @@
       <c r="AY10" t="n">
         <v>7.34600485950496e-11</v>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="AZ10" t="n">
+        <v>0.9312127836227956</v>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10835.fa</t>
         </is>
@@ -2321,14 +2392,22 @@
       <c r="AY11" t="n">
         <v>5.234290708470787e-10</v>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="AZ11" t="n">
+        <v>0.9373483659429225</v>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10881.fa</t>
         </is>
@@ -2483,14 +2562,22 @@
       <c r="AY12" t="n">
         <v>3.75211335542815e-09</v>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="AZ12" t="n">
+        <v>0.9619240421068431</v>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT11063.fa</t>
         </is>
@@ -2645,14 +2732,22 @@
       <c r="AY13" t="n">
         <v>1.906024469226377e-09</v>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="AZ13" t="n">
+        <v>0.3591374306617281</v>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>g__UBA1081</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
         <is>
           <t>g__UBA1081</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT11152.fa</t>
         </is>
@@ -2807,14 +2902,22 @@
       <c r="AY14" t="n">
         <v>1.471956945042755e-09</v>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="AZ14" t="n">
+        <v>0.9279792800561962</v>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT11304.fa</t>
         </is>
@@ -2969,14 +3072,22 @@
       <c r="AY15" t="n">
         <v>8.481268363158466e-11</v>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="AZ15" t="n">
+        <v>0.9583985896437375</v>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT11417.fa</t>
         </is>
@@ -3131,14 +3242,22 @@
       <c r="AY16" t="n">
         <v>3.935530366068254e-09</v>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="AZ16" t="n">
+        <v>0.8885868300758678</v>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT11449.fa</t>
         </is>
@@ -3293,14 +3412,22 @@
       <c r="AY17" t="n">
         <v>1.906195670514585e-11</v>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="AZ17" t="n">
+        <v>0.9850763591715642</v>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12186.fa</t>
         </is>
@@ -3455,14 +3582,22 @@
       <c r="AY18" t="n">
         <v>1.002843469914966e-11</v>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="AZ18" t="n">
+        <v>0.9860462433870183</v>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12264.fa</t>
         </is>
@@ -3617,14 +3752,22 @@
       <c r="AY19" t="n">
         <v>2.207228615359619e-10</v>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="AZ19" t="n">
+        <v>0.9356606144476775</v>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12567.fa</t>
         </is>
@@ -3779,14 +3922,22 @@
       <c r="AY20" t="n">
         <v>4.287401205961901e-08</v>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="AZ20" t="n">
+        <v>0.6657749064577406</v>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12643.fa</t>
         </is>
@@ -3941,14 +4092,22 @@
       <c r="AY21" t="n">
         <v>9.905525545123715e-09</v>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="AZ21" t="n">
+        <v>0.924921454049498</v>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12644.fa</t>
         </is>
@@ -4103,14 +4262,22 @@
       <c r="AY22" t="n">
         <v>2.248604144524946e-09</v>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="AZ22" t="n">
+        <v>0.570561423657783</v>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>g__UBA1227</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
         <is>
           <t>g__UBA1227</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT13170.fa</t>
         </is>
@@ -4265,14 +4432,22 @@
       <c r="AY23" t="n">
         <v>0.0001665963465221704</v>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="AZ23" t="n">
+        <v>0.2884783846888201</v>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>g__UMGS1591</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
         <is>
           <t>g__UMGS1591</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT13293.fa</t>
         </is>
@@ -4427,14 +4602,22 @@
       <c r="AY24" t="n">
         <v>4.114533109243123e-09</v>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="AZ24" t="n">
+        <v>0.9809042914921128</v>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15028.fa</t>
         </is>
@@ -4589,14 +4772,22 @@
       <c r="AY25" t="n">
         <v>1.176565591630354e-08</v>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="AZ25" t="n">
+        <v>0.8715764505828245</v>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15229.fa</t>
         </is>
@@ -4751,14 +4942,22 @@
       <c r="AY26" t="n">
         <v>1.666858636726645e-06</v>
       </c>
-      <c r="AZ26" t="inlineStr">
+      <c r="AZ26" t="n">
+        <v>0.5768356046971964</v>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15285.fa</t>
         </is>
@@ -4913,14 +5112,22 @@
       <c r="AY27" t="n">
         <v>6.419330979785359e-08</v>
       </c>
-      <c r="AZ27" t="inlineStr">
+      <c r="AZ27" t="n">
+        <v>0.9495503312841271</v>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15605.fa</t>
         </is>
@@ -5075,14 +5282,22 @@
       <c r="AY28" t="n">
         <v>1.118860213119077e-11</v>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="AZ28" t="n">
+        <v>0.9899255542686348</v>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15872.fa</t>
         </is>
@@ -5237,14 +5452,22 @@
       <c r="AY29" t="n">
         <v>1.805137996968974e-06</v>
       </c>
-      <c r="AZ29" t="inlineStr">
+      <c r="AZ29" t="n">
+        <v>0.684212227265092</v>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15914.fa</t>
         </is>
@@ -5399,14 +5622,22 @@
       <c r="AY30" t="n">
         <v>4.584209105485795e-07</v>
       </c>
-      <c r="AZ30" t="inlineStr">
+      <c r="AZ30" t="n">
+        <v>0.8821770904907278</v>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16017.fa</t>
         </is>
@@ -5561,14 +5792,22 @@
       <c r="AY31" t="n">
         <v>7.598684471223637e-12</v>
       </c>
-      <c r="AZ31" t="inlineStr">
+      <c r="AZ31" t="n">
+        <v>0.9866292183906108</v>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16113.fa</t>
         </is>
@@ -5723,14 +5962,22 @@
       <c r="AY32" t="n">
         <v>1.602623301292551e-10</v>
       </c>
-      <c r="AZ32" t="inlineStr">
+      <c r="AZ32" t="n">
+        <v>0.9088277377822095</v>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16117.fa</t>
         </is>
@@ -5885,14 +6132,22 @@
       <c r="AY33" t="n">
         <v>4.940720946570397e-12</v>
       </c>
-      <c r="AZ33" t="inlineStr">
+      <c r="AZ33" t="n">
+        <v>0.9906760567828137</v>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16156.fa</t>
         </is>
@@ -6047,14 +6302,22 @@
       <c r="AY34" t="n">
         <v>0.001496599538289111</v>
       </c>
-      <c r="AZ34" t="inlineStr">
+      <c r="AZ34" t="n">
+        <v>0.4324779098481378</v>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>g__RUG420</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
         <is>
           <t>g__RUG420</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16297.fa</t>
         </is>
@@ -6209,14 +6472,22 @@
       <c r="AY35" t="n">
         <v>1.846649935847654e-12</v>
       </c>
-      <c r="AZ35" t="inlineStr">
+      <c r="AZ35" t="n">
+        <v>0.9613070919717662</v>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT16845.fa</t>
         </is>
@@ -6371,14 +6642,22 @@
       <c r="AY36" t="n">
         <v>2.894152327072274e-10</v>
       </c>
-      <c r="AZ36" t="inlineStr">
+      <c r="AZ36" t="n">
+        <v>0.9232783480154436</v>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1707.fa</t>
         </is>
@@ -6533,14 +6812,22 @@
       <c r="AY37" t="n">
         <v>1.723246125169716e-06</v>
       </c>
-      <c r="AZ37" t="inlineStr">
+      <c r="AZ37" t="n">
+        <v>0.9758986038119785</v>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17271.fa</t>
         </is>
@@ -6695,14 +6982,22 @@
       <c r="AY38" t="n">
         <v>0.0002644642460406309</v>
       </c>
-      <c r="AZ38" t="inlineStr">
+      <c r="AZ38" t="n">
+        <v>0.3410076680635488</v>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>g__UMGS1591</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
         <is>
           <t>g__UMGS1591</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17733.fa</t>
         </is>
@@ -6857,14 +7152,22 @@
       <c r="AY39" t="n">
         <v>6.610392348846486e-08</v>
       </c>
-      <c r="AZ39" t="inlineStr">
+      <c r="AZ39" t="n">
+        <v>0.9173547139710618</v>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1792.fa</t>
         </is>
@@ -7019,14 +7322,22 @@
       <c r="AY40" t="n">
         <v>1.213309805750123e-10</v>
       </c>
-      <c r="AZ40" t="inlineStr">
+      <c r="AZ40" t="n">
+        <v>0.9453872386827935</v>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT18425.fa</t>
         </is>
@@ -7181,14 +7492,22 @@
       <c r="AY41" t="n">
         <v>3.236714191486899e-06</v>
       </c>
-      <c r="AZ41" t="inlineStr">
+      <c r="AZ41" t="n">
+        <v>0.9029912341073609</v>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT18447.fa</t>
         </is>
@@ -7343,14 +7662,22 @@
       <c r="AY42" t="n">
         <v>1.139749854610296e-07</v>
       </c>
-      <c r="AZ42" t="inlineStr">
+      <c r="AZ42" t="n">
+        <v>0.920305697704325</v>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT18526.fa</t>
         </is>
@@ -7505,14 +7832,22 @@
       <c r="AY43" t="n">
         <v>6.294910731800452e-10</v>
       </c>
-      <c r="AZ43" t="inlineStr">
+      <c r="AZ43" t="n">
+        <v>0.9444329993611709</v>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT18577.fa</t>
         </is>
@@ -7667,14 +8002,22 @@
       <c r="AY44" t="n">
         <v>8.054364834987898e-12</v>
       </c>
-      <c r="AZ44" t="inlineStr">
+      <c r="AZ44" t="n">
+        <v>0.9858930177602561</v>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT18932.fa</t>
         </is>
@@ -7829,14 +8172,22 @@
       <c r="AY45" t="n">
         <v>9.893382974767143e-07</v>
       </c>
-      <c r="AZ45" t="inlineStr">
+      <c r="AZ45" t="n">
+        <v>0.8764134462067722</v>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19064.fa</t>
         </is>
@@ -7991,14 +8342,22 @@
       <c r="AY46" t="n">
         <v>4.873520807248633e-08</v>
       </c>
-      <c r="AZ46" t="inlineStr">
+      <c r="AZ46" t="n">
+        <v>0.8350179326258986</v>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19182.fa</t>
         </is>
@@ -8153,14 +8512,22 @@
       <c r="AY47" t="n">
         <v>1.291456113046769e-07</v>
       </c>
-      <c r="AZ47" t="inlineStr">
+      <c r="AZ47" t="n">
+        <v>0.9013457862601265</v>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19219.fa</t>
         </is>
@@ -8315,14 +8682,22 @@
       <c r="AY48" t="n">
         <v>1.100423075347162e-11</v>
       </c>
-      <c r="AZ48" t="inlineStr">
+      <c r="AZ48" t="n">
+        <v>0.9469364229041023</v>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19592.fa</t>
         </is>
@@ -8477,14 +8852,22 @@
       <c r="AY49" t="n">
         <v>0.0009975046376563387</v>
       </c>
-      <c r="AZ49" t="inlineStr">
+      <c r="AZ49" t="n">
+        <v>0.3255583125555762</v>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>g__UMGS1591</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
         <is>
           <t>g__UMGS1591</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19650.fa</t>
         </is>
@@ -8639,14 +9022,22 @@
       <c r="AY50" t="n">
         <v>5.120534222836603e-10</v>
       </c>
-      <c r="AZ50" t="inlineStr">
+      <c r="AZ50" t="n">
+        <v>0.9262269592465918</v>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB50" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19738.fa</t>
         </is>
@@ -8801,14 +9192,22 @@
       <c r="AY51" t="n">
         <v>5.758503561542425e-11</v>
       </c>
-      <c r="AZ51" t="inlineStr">
+      <c r="AZ51" t="n">
+        <v>0.9898207653691958</v>
+      </c>
+      <c r="BA51" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB51" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT19947.fa</t>
         </is>
@@ -8963,14 +9362,22 @@
       <c r="AY52" t="n">
         <v>1.174411887204671e-09</v>
       </c>
-      <c r="AZ52" t="inlineStr">
+      <c r="AZ52" t="n">
+        <v>0.9210743307477599</v>
+      </c>
+      <c r="BA52" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB52" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT20972.fa</t>
         </is>
@@ -9125,14 +9532,22 @@
       <c r="AY53" t="n">
         <v>3.73523376205722e-06</v>
       </c>
-      <c r="AZ53" t="inlineStr">
+      <c r="AZ53" t="n">
+        <v>0.8541320156146439</v>
+      </c>
+      <c r="BA53" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB53" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT20984.fa</t>
         </is>
@@ -9287,14 +9702,22 @@
       <c r="AY54" t="n">
         <v>6.634428651852698e-09</v>
       </c>
-      <c r="AZ54" t="inlineStr">
+      <c r="AZ54" t="n">
+        <v>0.77729449380446</v>
+      </c>
+      <c r="BA54" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB54" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21072.fa</t>
         </is>
@@ -9449,14 +9872,22 @@
       <c r="AY55" t="n">
         <v>7.286399662861074e-07</v>
       </c>
-      <c r="AZ55" t="inlineStr">
+      <c r="AZ55" t="n">
+        <v>0.8650761141418608</v>
+      </c>
+      <c r="BA55" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB55" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21122.fa</t>
         </is>
@@ -9611,14 +10042,22 @@
       <c r="AY56" t="n">
         <v>3.893760813045226e-09</v>
       </c>
-      <c r="AZ56" t="inlineStr">
+      <c r="AZ56" t="n">
+        <v>0.9247274208617733</v>
+      </c>
+      <c r="BA56" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB56" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21326.fa</t>
         </is>
@@ -9773,14 +10212,22 @@
       <c r="AY57" t="n">
         <v>7.636041757120259e-08</v>
       </c>
-      <c r="AZ57" t="inlineStr">
+      <c r="AZ57" t="n">
+        <v>0.7217524065152574</v>
+      </c>
+      <c r="BA57" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB57" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21378.fa</t>
         </is>
@@ -9935,14 +10382,22 @@
       <c r="AY58" t="n">
         <v>1.397749907459235e-07</v>
       </c>
-      <c r="AZ58" t="inlineStr">
+      <c r="AZ58" t="n">
+        <v>0.8945357607300845</v>
+      </c>
+      <c r="BA58" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB58" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21444.fa</t>
         </is>
@@ -10097,14 +10552,22 @@
       <c r="AY59" t="n">
         <v>1.184459391432624e-06</v>
       </c>
-      <c r="AZ59" t="inlineStr">
+      <c r="AZ59" t="n">
+        <v>0.6622220605794857</v>
+      </c>
+      <c r="BA59" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB59" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21531.fa</t>
         </is>
@@ -10259,14 +10722,22 @@
       <c r="AY60" t="n">
         <v>1.661485283792985e-07</v>
       </c>
-      <c r="AZ60" t="inlineStr">
+      <c r="AZ60" t="n">
+        <v>0.9174157207764793</v>
+      </c>
+      <c r="BA60" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB60" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21785.fa</t>
         </is>
@@ -10421,14 +10892,22 @@
       <c r="AY61" t="n">
         <v>2.221298656303267e-07</v>
       </c>
-      <c r="AZ61" t="inlineStr">
+      <c r="AZ61" t="n">
+        <v>0.8317004590204711</v>
+      </c>
+      <c r="BA61" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB61" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT22238.fa</t>
         </is>
@@ -10583,14 +11062,22 @@
       <c r="AY62" t="n">
         <v>2.727909694930153e-09</v>
       </c>
-      <c r="AZ62" t="inlineStr">
+      <c r="AZ62" t="n">
+        <v>0.9515966845698958</v>
+      </c>
+      <c r="BA62" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB62" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT22452.fa</t>
         </is>
@@ -10745,14 +11232,22 @@
       <c r="AY63" t="n">
         <v>2.451568961703536e-07</v>
       </c>
-      <c r="AZ63" t="inlineStr">
+      <c r="AZ63" t="n">
+        <v>0.9498486027669442</v>
+      </c>
+      <c r="BA63" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB63" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT22502.fa</t>
         </is>
@@ -10907,14 +11402,22 @@
       <c r="AY64" t="n">
         <v>1.350795243708583e-12</v>
       </c>
-      <c r="AZ64" t="inlineStr">
+      <c r="AZ64" t="n">
+        <v>0.9848755764877704</v>
+      </c>
+      <c r="BA64" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB64" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT22848.fa</t>
         </is>
@@ -11069,14 +11572,22 @@
       <c r="AY65" t="n">
         <v>1.00010021009603e-07</v>
       </c>
-      <c r="AZ65" t="inlineStr">
+      <c r="AZ65" t="n">
+        <v>0.8707732128216745</v>
+      </c>
+      <c r="BA65" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB65" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT23210.fa</t>
         </is>
@@ -11231,14 +11742,22 @@
       <c r="AY66" t="n">
         <v>4.327672267496979e-07</v>
       </c>
-      <c r="AZ66" t="inlineStr">
+      <c r="AZ66" t="n">
+        <v>0.9203078102145503</v>
+      </c>
+      <c r="BA66" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB66" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT23276.fa</t>
         </is>
@@ -11393,14 +11912,22 @@
       <c r="AY67" t="n">
         <v>2.507009394943011e-09</v>
       </c>
-      <c r="AZ67" t="inlineStr">
+      <c r="AZ67" t="n">
+        <v>0.9571105993016019</v>
+      </c>
+      <c r="BA67" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB67" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT23397.fa</t>
         </is>
@@ -11555,14 +12082,22 @@
       <c r="AY68" t="n">
         <v>2.161947926092153e-08</v>
       </c>
-      <c r="AZ68" t="inlineStr">
+      <c r="AZ68" t="n">
+        <v>0.533602457779897</v>
+      </c>
+      <c r="BA68" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB68" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT24369.fa</t>
         </is>
@@ -11717,14 +12252,22 @@
       <c r="AY69" t="n">
         <v>2.773244894404631e-07</v>
       </c>
-      <c r="AZ69" t="inlineStr">
+      <c r="AZ69" t="n">
+        <v>0.905342865957559</v>
+      </c>
+      <c r="BA69" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB69" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT25404.fa</t>
         </is>
@@ -11879,14 +12422,22 @@
       <c r="AY70" t="n">
         <v>2.579109181584772e-10</v>
       </c>
-      <c r="AZ70" t="inlineStr">
+      <c r="AZ70" t="n">
+        <v>0.9539337377389359</v>
+      </c>
+      <c r="BA70" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB70" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT25802.fa</t>
         </is>
@@ -12041,14 +12592,22 @@
       <c r="AY71" t="n">
         <v>1.873664480320217e-08</v>
       </c>
-      <c r="AZ71" t="inlineStr">
+      <c r="AZ71" t="n">
+        <v>0.8512415209132621</v>
+      </c>
+      <c r="BA71" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB71" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT25808.fa</t>
         </is>
@@ -12203,14 +12762,22 @@
       <c r="AY72" t="n">
         <v>2.594038849653397e-12</v>
       </c>
-      <c r="AZ72" t="inlineStr">
+      <c r="AZ72" t="n">
+        <v>0.9882386212252283</v>
+      </c>
+      <c r="BA72" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB72" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26038.fa</t>
         </is>
@@ -12365,14 +12932,22 @@
       <c r="AY73" t="n">
         <v>7.468844165591657e-08</v>
       </c>
-      <c r="AZ73" t="inlineStr">
+      <c r="AZ73" t="n">
+        <v>0.9309933857306811</v>
+      </c>
+      <c r="BA73" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB73" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26204.fa</t>
         </is>
@@ -12527,14 +13102,22 @@
       <c r="AY74" t="n">
         <v>2.656862764943835e-10</v>
       </c>
-      <c r="AZ74" t="inlineStr">
+      <c r="AZ74" t="n">
+        <v>0.891361944080497</v>
+      </c>
+      <c r="BA74" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB74" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26239.fa</t>
         </is>
@@ -12689,14 +13272,22 @@
       <c r="AY75" t="n">
         <v>3.210598777026092e-09</v>
       </c>
-      <c r="AZ75" t="inlineStr">
+      <c r="AZ75" t="n">
+        <v>0.9052560758492736</v>
+      </c>
+      <c r="BA75" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB75" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26293.fa</t>
         </is>
@@ -12851,14 +13442,22 @@
       <c r="AY76" t="n">
         <v>1.699553304520189e-06</v>
       </c>
-      <c r="AZ76" t="inlineStr">
+      <c r="AZ76" t="n">
+        <v>0.9431761125481465</v>
+      </c>
+      <c r="BA76" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB76" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26333.fa</t>
         </is>
@@ -13013,14 +13612,22 @@
       <c r="AY77" t="n">
         <v>1.145540379808226e-07</v>
       </c>
-      <c r="AZ77" t="inlineStr">
+      <c r="AZ77" t="n">
+        <v>0.9269012450531385</v>
+      </c>
+      <c r="BA77" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB77" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26344.fa</t>
         </is>
@@ -13175,14 +13782,22 @@
       <c r="AY78" t="n">
         <v>2.506130565034255e-08</v>
       </c>
-      <c r="AZ78" t="inlineStr">
+      <c r="AZ78" t="n">
+        <v>0.9008713894606376</v>
+      </c>
+      <c r="BA78" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB78" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26400.fa</t>
         </is>
@@ -13337,14 +13952,22 @@
       <c r="AY79" t="n">
         <v>7.022328996038652e-09</v>
       </c>
-      <c r="AZ79" t="inlineStr">
+      <c r="AZ79" t="n">
+        <v>0.8762423081205009</v>
+      </c>
+      <c r="BA79" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB79" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26401.fa</t>
         </is>
@@ -13499,14 +14122,22 @@
       <c r="AY80" t="n">
         <v>0.09113110291475728</v>
       </c>
-      <c r="AZ80" t="inlineStr">
+      <c r="AZ80" t="n">
+        <v>0.2407932715716066</v>
+      </c>
+      <c r="BA80" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB80" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26441.fa</t>
         </is>
@@ -13661,14 +14292,22 @@
       <c r="AY81" t="n">
         <v>1.27472108776252e-08</v>
       </c>
-      <c r="AZ81" t="inlineStr">
+      <c r="AZ81" t="n">
+        <v>0.9148414472846772</v>
+      </c>
+      <c r="BA81" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB81" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26501.fa</t>
         </is>
@@ -13823,14 +14462,22 @@
       <c r="AY82" t="n">
         <v>0.00108136402672416</v>
       </c>
-      <c r="AZ82" t="inlineStr">
+      <c r="AZ82" t="n">
+        <v>0.2789378025849556</v>
+      </c>
+      <c r="BA82" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB82" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26512.fa</t>
         </is>
@@ -13985,14 +14632,22 @@
       <c r="AY83" t="n">
         <v>7.661780859268293e-06</v>
       </c>
-      <c r="AZ83" t="inlineStr">
+      <c r="AZ83" t="n">
+        <v>0.8475158130899232</v>
+      </c>
+      <c r="BA83" t="inlineStr">
+        <is>
+          <t>g__Anaeromassilibacillus</t>
+        </is>
+      </c>
+      <c r="BB83" t="inlineStr">
         <is>
           <t>g__Anaeromassilibacillus</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT27132.fa</t>
         </is>
@@ -14147,14 +14802,22 @@
       <c r="AY84" t="n">
         <v>3.19379249884245e-12</v>
       </c>
-      <c r="AZ84" t="inlineStr">
+      <c r="AZ84" t="n">
+        <v>0.9876328125126687</v>
+      </c>
+      <c r="BA84" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT27426.fa</t>
         </is>
@@ -14309,14 +14972,22 @@
       <c r="AY85" t="n">
         <v>2.902052383959248e-12</v>
       </c>
-      <c r="AZ85" t="inlineStr">
+      <c r="AZ85" t="n">
+        <v>0.9868027847062876</v>
+      </c>
+      <c r="BA85" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB85" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT27477.fa</t>
         </is>
@@ -14471,14 +15142,22 @@
       <c r="AY86" t="n">
         <v>1.625127879495823e-08</v>
       </c>
-      <c r="AZ86" t="inlineStr">
+      <c r="AZ86" t="n">
+        <v>0.1562160912089692</v>
+      </c>
+      <c r="BA86" t="inlineStr">
+        <is>
+          <t>g__UBA1227</t>
+        </is>
+      </c>
+      <c r="BB86" t="inlineStr">
         <is>
           <t>g__UBA1227</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT29483.fa</t>
         </is>
@@ -14633,14 +15312,22 @@
       <c r="AY87" t="n">
         <v>3.640361840055423e-12</v>
       </c>
-      <c r="AZ87" t="inlineStr">
+      <c r="AZ87" t="n">
+        <v>0.9883529959325715</v>
+      </c>
+      <c r="BA87" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB87" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT29582.fa</t>
         </is>
@@ -14795,14 +15482,22 @@
       <c r="AY88" t="n">
         <v>7.435507227275455e-08</v>
       </c>
-      <c r="AZ88" t="inlineStr">
+      <c r="AZ88" t="n">
+        <v>0.826116447951629</v>
+      </c>
+      <c r="BA88" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB88" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT29784.fa</t>
         </is>
@@ -14957,14 +15652,22 @@
       <c r="AY89" t="n">
         <v>4.499490072302058e-12</v>
       </c>
-      <c r="AZ89" t="inlineStr">
+      <c r="AZ89" t="n">
+        <v>0.9896314207540894</v>
+      </c>
+      <c r="BA89" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB89" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT29911.fa</t>
         </is>
@@ -15119,14 +15822,22 @@
       <c r="AY90" t="n">
         <v>4.34499657847056e-09</v>
       </c>
-      <c r="AZ90" t="inlineStr">
+      <c r="AZ90" t="n">
+        <v>0.8047198303755949</v>
+      </c>
+      <c r="BA90" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB90" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30142.fa</t>
         </is>
@@ -15281,14 +15992,22 @@
       <c r="AY91" t="n">
         <v>7.102110963317419e-10</v>
       </c>
-      <c r="AZ91" t="inlineStr">
+      <c r="AZ91" t="n">
+        <v>0.9118792088940317</v>
+      </c>
+      <c r="BA91" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB91" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30319.fa</t>
         </is>
@@ -15443,14 +16162,22 @@
       <c r="AY92" t="n">
         <v>3.026880150498856e-12</v>
       </c>
-      <c r="AZ92" t="inlineStr">
+      <c r="AZ92" t="n">
+        <v>0.9745494256429866</v>
+      </c>
+      <c r="BA92" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB92" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30383.fa</t>
         </is>
@@ -15605,14 +16332,22 @@
       <c r="AY93" t="n">
         <v>1.995748165797949e-07</v>
       </c>
-      <c r="AZ93" t="inlineStr">
+      <c r="AZ93" t="n">
+        <v>0.9380579675696857</v>
+      </c>
+      <c r="BA93" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB93" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30604.fa</t>
         </is>
@@ -15767,14 +16502,22 @@
       <c r="AY94" t="n">
         <v>8.984027109646714e-13</v>
       </c>
-      <c r="AZ94" t="inlineStr">
+      <c r="AZ94" t="n">
+        <v>0.9847996596569019</v>
+      </c>
+      <c r="BA94" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB94" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30728.fa</t>
         </is>
@@ -15929,14 +16672,22 @@
       <c r="AY95" t="n">
         <v>8.676075721454584e-09</v>
       </c>
-      <c r="AZ95" t="inlineStr">
+      <c r="AZ95" t="n">
+        <v>0.9371007798631552</v>
+      </c>
+      <c r="BA95" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB95" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT308.fa</t>
         </is>
@@ -16091,14 +16842,22 @@
       <c r="AY96" t="n">
         <v>3.016253056293765e-09</v>
       </c>
-      <c r="AZ96" t="inlineStr">
+      <c r="AZ96" t="n">
+        <v>0.900271534243417</v>
+      </c>
+      <c r="BA96" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB96" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3090.fa</t>
         </is>
@@ -16253,14 +17012,22 @@
       <c r="AY97" t="n">
         <v>1.07726460718308e-09</v>
       </c>
-      <c r="AZ97" t="inlineStr">
+      <c r="AZ97" t="n">
+        <v>0.9172980639997441</v>
+      </c>
+      <c r="BA97" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB97" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT30970.fa</t>
         </is>
@@ -16415,14 +17182,22 @@
       <c r="AY98" t="n">
         <v>2.674381350499161e-10</v>
       </c>
-      <c r="AZ98" t="inlineStr">
+      <c r="AZ98" t="n">
+        <v>0.9295972055194436</v>
+      </c>
+      <c r="BA98" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB98" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT31018.fa</t>
         </is>
@@ -16577,14 +17352,22 @@
       <c r="AY99" t="n">
         <v>2.989388272399525e-08</v>
       </c>
-      <c r="AZ99" t="inlineStr">
+      <c r="AZ99" t="n">
+        <v>0.92445588097069</v>
+      </c>
+      <c r="BA99" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB99" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3110.fa</t>
         </is>
@@ -16739,14 +17522,22 @@
       <c r="AY100" t="n">
         <v>1.703893522031629e-11</v>
       </c>
-      <c r="AZ100" t="inlineStr">
+      <c r="AZ100" t="n">
+        <v>0.9415057055783574</v>
+      </c>
+      <c r="BA100" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB100" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT31138.fa</t>
         </is>
@@ -16901,14 +17692,22 @@
       <c r="AY101" t="n">
         <v>3.03857291532666e-07</v>
       </c>
-      <c r="AZ101" t="inlineStr">
+      <c r="AZ101" t="n">
+        <v>0.8664182209656401</v>
+      </c>
+      <c r="BA101" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB101" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32215.fa</t>
         </is>
@@ -17063,14 +17862,22 @@
       <c r="AY102" t="n">
         <v>1.858767206795953e-09</v>
       </c>
-      <c r="AZ102" t="inlineStr">
+      <c r="AZ102" t="n">
+        <v>0.9250196518156049</v>
+      </c>
+      <c r="BA102" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB102" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="inlineStr">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32575.fa</t>
         </is>
@@ -17225,14 +18032,22 @@
       <c r="AY103" t="n">
         <v>4.642542549047835e-06</v>
       </c>
-      <c r="AZ103" t="inlineStr">
+      <c r="AZ103" t="n">
+        <v>0.8975818891939078</v>
+      </c>
+      <c r="BA103" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB103" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="inlineStr">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32966.fa</t>
         </is>
@@ -17387,14 +18202,22 @@
       <c r="AY104" t="n">
         <v>8.293621039179725e-08</v>
       </c>
-      <c r="AZ104" t="inlineStr">
+      <c r="AZ104" t="n">
+        <v>0.9286718724696573</v>
+      </c>
+      <c r="BA104" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB104" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="inlineStr">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT33415.fa</t>
         </is>
@@ -17549,14 +18372,22 @@
       <c r="AY105" t="n">
         <v>4.719569941137047e-12</v>
       </c>
-      <c r="AZ105" t="inlineStr">
+      <c r="AZ105" t="n">
+        <v>0.9900479486513598</v>
+      </c>
+      <c r="BA105" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB105" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT335.fa</t>
         </is>
@@ -17711,14 +18542,22 @@
       <c r="AY106" t="n">
         <v>6.536384663165263e-10</v>
       </c>
-      <c r="AZ106" t="inlineStr">
+      <c r="AZ106" t="n">
+        <v>0.9686015509446543</v>
+      </c>
+      <c r="BA106" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB106" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT33640.fa</t>
         </is>
@@ -17873,14 +18712,22 @@
       <c r="AY107" t="n">
         <v>1.416351553998355e-07</v>
       </c>
-      <c r="AZ107" t="inlineStr">
+      <c r="AZ107" t="n">
+        <v>0.9052132285758741</v>
+      </c>
+      <c r="BA107" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB107" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="inlineStr">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT33906.fa</t>
         </is>
@@ -18035,14 +18882,22 @@
       <c r="AY108" t="n">
         <v>2.280145019442185e-11</v>
       </c>
-      <c r="AZ108" t="inlineStr">
+      <c r="AZ108" t="n">
+        <v>0.9895829280610721</v>
+      </c>
+      <c r="BA108" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB108" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34183.fa</t>
         </is>
@@ -18197,14 +19052,22 @@
       <c r="AY109" t="n">
         <v>1.520588554771324e-11</v>
       </c>
-      <c r="AZ109" t="inlineStr">
+      <c r="AZ109" t="n">
+        <v>0.9885253392568297</v>
+      </c>
+      <c r="BA109" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB109" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="inlineStr">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34592.fa</t>
         </is>
@@ -18359,14 +19222,22 @@
       <c r="AY110" t="n">
         <v>7.131646697105686e-12</v>
       </c>
-      <c r="AZ110" t="inlineStr">
+      <c r="AZ110" t="n">
+        <v>0.9886531952917449</v>
+      </c>
+      <c r="BA110" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB110" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="inlineStr">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34600.fa</t>
         </is>
@@ -18521,14 +19392,22 @@
       <c r="AY111" t="n">
         <v>0.009013209175565898</v>
       </c>
-      <c r="AZ111" t="inlineStr">
+      <c r="AZ111" t="n">
+        <v>0.6611929649200197</v>
+      </c>
+      <c r="BA111" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB111" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+      <c r="A112" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34689.fa</t>
         </is>
@@ -18683,14 +19562,22 @@
       <c r="AY112" t="n">
         <v>3.404417320458691e-11</v>
       </c>
-      <c r="AZ112" t="inlineStr">
+      <c r="AZ112" t="n">
+        <v>0.9739733768490746</v>
+      </c>
+      <c r="BA112" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB112" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34724.fa</t>
         </is>
@@ -18845,14 +19732,22 @@
       <c r="AY113" t="n">
         <v>0.04283282957444551</v>
       </c>
-      <c r="AZ113" t="inlineStr">
+      <c r="AZ113" t="n">
+        <v>0.2577744646553149</v>
+      </c>
+      <c r="BA113" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB113" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="inlineStr">
+      <c r="A114" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT34937.fa</t>
         </is>
@@ -19007,14 +19902,22 @@
       <c r="AY114" t="n">
         <v>2.798296824607315e-09</v>
       </c>
-      <c r="AZ114" t="inlineStr">
+      <c r="AZ114" t="n">
+        <v>0.3538197645932794</v>
+      </c>
+      <c r="BA114" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB114" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
+      <c r="A115" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT35824.fa</t>
         </is>
@@ -19169,14 +20072,22 @@
       <c r="AY115" t="n">
         <v>2.631735144608742e-12</v>
       </c>
-      <c r="AZ115" t="inlineStr">
+      <c r="AZ115" t="n">
+        <v>0.9031701661766953</v>
+      </c>
+      <c r="BA115" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB115" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="inlineStr">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT35837.fa</t>
         </is>
@@ -19331,14 +20242,22 @@
       <c r="AY116" t="n">
         <v>3.025640114244628e-08</v>
       </c>
-      <c r="AZ116" t="inlineStr">
+      <c r="AZ116" t="n">
+        <v>0.8216961419051226</v>
+      </c>
+      <c r="BA116" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB116" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="inlineStr">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT35935.fa</t>
         </is>
@@ -19493,14 +20412,22 @@
       <c r="AY117" t="n">
         <v>6.13921290935706e-10</v>
       </c>
-      <c r="AZ117" t="inlineStr">
+      <c r="AZ117" t="n">
+        <v>0.9388873721348905</v>
+      </c>
+      <c r="BA117" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB117" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT35964.fa</t>
         </is>
@@ -19655,14 +20582,22 @@
       <c r="AY118" t="n">
         <v>2.771979278037051e-08</v>
       </c>
-      <c r="AZ118" t="inlineStr">
+      <c r="AZ118" t="n">
+        <v>0.945646508064209</v>
+      </c>
+      <c r="BA118" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB118" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="inlineStr">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT36037.fa</t>
         </is>
@@ -19817,14 +20752,22 @@
       <c r="AY119" t="n">
         <v>4.345242895347327e-08</v>
       </c>
-      <c r="AZ119" t="inlineStr">
+      <c r="AZ119" t="n">
+        <v>0.8819230922995187</v>
+      </c>
+      <c r="BA119" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB119" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3631.fa</t>
         </is>
@@ -19979,14 +20922,22 @@
       <c r="AY120" t="n">
         <v>0.05077980522769367</v>
       </c>
-      <c r="AZ120" t="inlineStr">
+      <c r="AZ120" t="n">
+        <v>0.2047044987139875</v>
+      </c>
+      <c r="BA120" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB120" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3745.fa</t>
         </is>
@@ -20141,14 +21092,22 @@
       <c r="AY121" t="n">
         <v>0.04155920051432556</v>
       </c>
-      <c r="AZ121" t="inlineStr">
+      <c r="AZ121" t="n">
+        <v>0.2638780409977751</v>
+      </c>
+      <c r="BA121" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB121" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT37553.fa</t>
         </is>
@@ -20303,14 +21262,22 @@
       <c r="AY122" t="n">
         <v>7.539592924574034e-08</v>
       </c>
-      <c r="AZ122" t="inlineStr">
+      <c r="AZ122" t="n">
+        <v>0.9612227244828619</v>
+      </c>
+      <c r="BA122" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB122" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="inlineStr">
+      <c r="A123" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT37870.fa</t>
         </is>
@@ -20465,14 +21432,22 @@
       <c r="AY123" t="n">
         <v>4.948408972525782e-06</v>
       </c>
-      <c r="AZ123" t="inlineStr">
+      <c r="AZ123" t="n">
+        <v>0.9138144786150033</v>
+      </c>
+      <c r="BA123" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB123" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT38485.fa</t>
         </is>
@@ -20627,14 +21602,22 @@
       <c r="AY124" t="n">
         <v>5.249890915413102e-09</v>
       </c>
-      <c r="AZ124" t="inlineStr">
+      <c r="AZ124" t="n">
+        <v>0.9178175027354111</v>
+      </c>
+      <c r="BA124" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB124" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT38840.fa</t>
         </is>
@@ -20789,14 +21772,22 @@
       <c r="AY125" t="n">
         <v>9.326589016450909e-07</v>
       </c>
-      <c r="AZ125" t="inlineStr">
+      <c r="AZ125" t="n">
+        <v>0.4140239342284802</v>
+      </c>
+      <c r="BA125" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB125" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39028.fa</t>
         </is>
@@ -20951,14 +21942,22 @@
       <c r="AY126" t="n">
         <v>8.02057364191222e-10</v>
       </c>
-      <c r="AZ126" t="inlineStr">
+      <c r="AZ126" t="n">
+        <v>0.9291144622737784</v>
+      </c>
+      <c r="BA126" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB126" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39095.fa</t>
         </is>
@@ -21113,14 +22112,22 @@
       <c r="AY127" t="n">
         <v>1.231864943013412e-06</v>
       </c>
-      <c r="AZ127" t="inlineStr">
+      <c r="AZ127" t="n">
+        <v>0.8635888367102758</v>
+      </c>
+      <c r="BA127" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB127" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39098.fa</t>
         </is>
@@ -21275,14 +22282,22 @@
       <c r="AY128" t="n">
         <v>4.255144181825526e-09</v>
       </c>
-      <c r="AZ128" t="inlineStr">
+      <c r="AZ128" t="n">
+        <v>0.9354186838088441</v>
+      </c>
+      <c r="BA128" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB128" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39237.fa</t>
         </is>
@@ -21437,14 +22452,22 @@
       <c r="AY129" t="n">
         <v>8.609865533814203e-09</v>
       </c>
-      <c r="AZ129" t="inlineStr">
+      <c r="AZ129" t="n">
+        <v>0.9084874974435467</v>
+      </c>
+      <c r="BA129" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB129" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39372.fa</t>
         </is>
@@ -21599,14 +22622,22 @@
       <c r="AY130" t="n">
         <v>4.977114052310334e-07</v>
       </c>
-      <c r="AZ130" t="inlineStr">
+      <c r="AZ130" t="n">
+        <v>0.8847951559093469</v>
+      </c>
+      <c r="BA130" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB130" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT39583.fa</t>
         </is>
@@ -21761,14 +22792,22 @@
       <c r="AY131" t="n">
         <v>2.568771823704478e-09</v>
       </c>
-      <c r="AZ131" t="inlineStr">
+      <c r="AZ131" t="n">
+        <v>0.9446059352094522</v>
+      </c>
+      <c r="BA131" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB131" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT40638.fa</t>
         </is>
@@ -21923,14 +22962,22 @@
       <c r="AY132" t="n">
         <v>5.93520784447383e-11</v>
       </c>
-      <c r="AZ132" t="inlineStr">
+      <c r="AZ132" t="n">
+        <v>0.99070786417958</v>
+      </c>
+      <c r="BA132" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB132" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="inlineStr">
+      <c r="A133" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT40856.fa</t>
         </is>
@@ -22085,14 +23132,22 @@
       <c r="AY133" t="n">
         <v>4.382960512341789e-12</v>
       </c>
-      <c r="AZ133" t="inlineStr">
+      <c r="AZ133" t="n">
+        <v>0.9392939872791578</v>
+      </c>
+      <c r="BA133" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB133" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT41665.fa</t>
         </is>
@@ -22247,14 +23302,22 @@
       <c r="AY134" t="n">
         <v>3.712096661417132e-06</v>
       </c>
-      <c r="AZ134" t="inlineStr">
+      <c r="AZ134" t="n">
+        <v>0.9416214754488221</v>
+      </c>
+      <c r="BA134" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB134" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="inlineStr">
+      <c r="A135" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT42125.fa</t>
         </is>
@@ -22409,14 +23472,22 @@
       <c r="AY135" t="n">
         <v>2.501320662346708e-10</v>
       </c>
-      <c r="AZ135" t="inlineStr">
+      <c r="AZ135" t="n">
+        <v>0.966171160128489</v>
+      </c>
+      <c r="BA135" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB135" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4247.fa</t>
         </is>
@@ -22571,14 +23642,22 @@
       <c r="AY136" t="n">
         <v>2.99017651512299e-07</v>
       </c>
-      <c r="AZ136" t="inlineStr">
+      <c r="AZ136" t="n">
+        <v>0.45348895427406</v>
+      </c>
+      <c r="BA136" t="inlineStr">
+        <is>
+          <t>g__UBA1081</t>
+        </is>
+      </c>
+      <c r="BB136" t="inlineStr">
         <is>
           <t>g__UBA1081</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
+      <c r="A137" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT42494.fa</t>
         </is>
@@ -22733,14 +23812,22 @@
       <c r="AY137" t="n">
         <v>1.129798686703764e-05</v>
       </c>
-      <c r="AZ137" t="inlineStr">
+      <c r="AZ137" t="n">
+        <v>0.686938125648863</v>
+      </c>
+      <c r="BA137" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB137" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT42663.fa</t>
         </is>
@@ -22895,14 +23982,22 @@
       <c r="AY138" t="n">
         <v>1.00328552036003e-09</v>
       </c>
-      <c r="AZ138" t="inlineStr">
+      <c r="AZ138" t="n">
+        <v>0.9474169112784249</v>
+      </c>
+      <c r="BA138" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB138" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="inlineStr">
+      <c r="A139" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43330.fa</t>
         </is>
@@ -23057,14 +24152,22 @@
       <c r="AY139" t="n">
         <v>8.366929922631852e-09</v>
       </c>
-      <c r="AZ139" t="inlineStr">
+      <c r="AZ139" t="n">
+        <v>0.9050349623992282</v>
+      </c>
+      <c r="BA139" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB139" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="inlineStr">
+      <c r="A140" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43946.fa</t>
         </is>
@@ -23219,14 +24322,22 @@
       <c r="AY140" t="n">
         <v>2.858028089520527e-10</v>
       </c>
-      <c r="AZ140" t="inlineStr">
+      <c r="AZ140" t="n">
+        <v>0.9616025172648051</v>
+      </c>
+      <c r="BA140" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB140" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="inlineStr">
+      <c r="A141" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4426.fa</t>
         </is>
@@ -23381,14 +24492,22 @@
       <c r="AY141" t="n">
         <v>1.165146370701359e-05</v>
       </c>
-      <c r="AZ141" t="inlineStr">
+      <c r="AZ141" t="n">
+        <v>0.931318117481898</v>
+      </c>
+      <c r="BA141" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB141" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
+      <c r="A142" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44522.fa</t>
         </is>
@@ -23543,14 +24662,22 @@
       <c r="AY142" t="n">
         <v>5.534754328730352e-10</v>
       </c>
-      <c r="AZ142" t="inlineStr">
+      <c r="AZ142" t="n">
+        <v>0.8665461882663551</v>
+      </c>
+      <c r="BA142" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB142" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="inlineStr">
+      <c r="A143" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44840.fa</t>
         </is>
@@ -23705,14 +24832,22 @@
       <c r="AY143" t="n">
         <v>4.756121285525909e-08</v>
       </c>
-      <c r="AZ143" t="inlineStr">
+      <c r="AZ143" t="n">
+        <v>0.9609945826417737</v>
+      </c>
+      <c r="BA143" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB143" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="A144" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT45062.fa</t>
         </is>
@@ -23867,14 +25002,22 @@
       <c r="AY144" t="n">
         <v>4.921959644683749e-06</v>
       </c>
-      <c r="AZ144" t="inlineStr">
+      <c r="AZ144" t="n">
+        <v>0.9343905335874867</v>
+      </c>
+      <c r="BA144" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB144" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="inlineStr">
+      <c r="A145" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT45205.fa</t>
         </is>
@@ -24029,14 +25172,22 @@
       <c r="AY145" t="n">
         <v>0.006087082828604465</v>
       </c>
-      <c r="AZ145" t="inlineStr">
+      <c r="AZ145" t="n">
+        <v>0.2234631033778165</v>
+      </c>
+      <c r="BA145" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB145" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
+      <c r="A146" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4564.fa</t>
         </is>
@@ -24191,14 +25342,22 @@
       <c r="AY146" t="n">
         <v>5.398300802862397e-12</v>
       </c>
-      <c r="AZ146" t="inlineStr">
+      <c r="AZ146" t="n">
+        <v>0.992976370616246</v>
+      </c>
+      <c r="BA146" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB146" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="inlineStr">
+      <c r="A147" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT45858.fa</t>
         </is>
@@ -24353,14 +25512,22 @@
       <c r="AY147" t="n">
         <v>2.437910588040215e-09</v>
       </c>
-      <c r="AZ147" t="inlineStr">
+      <c r="AZ147" t="n">
+        <v>0.9349299190673991</v>
+      </c>
+      <c r="BA147" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB147" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="inlineStr">
+      <c r="A148" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46179.fa</t>
         </is>
@@ -24515,14 +25682,22 @@
       <c r="AY148" t="n">
         <v>2.484008761910351e-05</v>
       </c>
-      <c r="AZ148" t="inlineStr">
+      <c r="AZ148" t="n">
+        <v>0.6263208870079168</v>
+      </c>
+      <c r="BA148" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB148" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
+      <c r="A149" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46826.fa</t>
         </is>
@@ -24677,14 +25852,22 @@
       <c r="AY149" t="n">
         <v>0.05235900770550832</v>
       </c>
-      <c r="AZ149" t="inlineStr">
+      <c r="AZ149" t="n">
+        <v>0.2420784240998687</v>
+      </c>
+      <c r="BA149" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB149" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
+      <c r="A150" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4726.fa</t>
         </is>
@@ -24839,14 +26022,22 @@
       <c r="AY150" t="n">
         <v>2.894802910835668e-12</v>
       </c>
-      <c r="AZ150" t="inlineStr">
+      <c r="AZ150" t="n">
+        <v>0.8972962832337474</v>
+      </c>
+      <c r="BA150" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB150" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="inlineStr">
+      <c r="A151" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT47603.fa</t>
         </is>
@@ -25001,14 +26192,22 @@
       <c r="AY151" t="n">
         <v>1.10155036411951e-09</v>
       </c>
-      <c r="AZ151" t="inlineStr">
+      <c r="AZ151" t="n">
+        <v>0.8746973083532399</v>
+      </c>
+      <c r="BA151" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB151" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
+      <c r="A152" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT47959.fa</t>
         </is>
@@ -25163,14 +26362,22 @@
       <c r="AY152" t="n">
         <v>1.139192700016161e-12</v>
       </c>
-      <c r="AZ152" t="inlineStr">
+      <c r="AZ152" t="n">
+        <v>0.9887246367341531</v>
+      </c>
+      <c r="BA152" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB152" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="inlineStr">
+      <c r="A153" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48218.fa</t>
         </is>
@@ -25325,14 +26532,22 @@
       <c r="AY153" t="n">
         <v>1.008615263384298e-10</v>
       </c>
-      <c r="AZ153" t="inlineStr">
+      <c r="AZ153" t="n">
+        <v>0.979767931120807</v>
+      </c>
+      <c r="BA153" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
+      <c r="BB153" t="inlineStr">
         <is>
           <t>g__CAG-964</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
+      <c r="A154" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4902.fa</t>
         </is>
@@ -25487,14 +26702,22 @@
       <c r="AY154" t="n">
         <v>1.319748886356785e-07</v>
       </c>
-      <c r="AZ154" t="inlineStr">
+      <c r="AZ154" t="n">
+        <v>0.2315627531334593</v>
+      </c>
+      <c r="BA154" t="inlineStr">
+        <is>
+          <t>g__UBA1417</t>
+        </is>
+      </c>
+      <c r="BB154" t="inlineStr">
         <is>
           <t>g__UBA1417</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="inlineStr">
+      <c r="A155" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT50591.fa</t>
         </is>
@@ -25649,14 +26872,22 @@
       <c r="AY155" t="n">
         <v>1.543838095514209e-09</v>
       </c>
-      <c r="AZ155" t="inlineStr">
+      <c r="AZ155" t="n">
+        <v>0.8090917695603953</v>
+      </c>
+      <c r="BA155" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB155" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
+      <c r="A156" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5060.fa</t>
         </is>
@@ -25811,14 +27042,22 @@
       <c r="AY156" t="n">
         <v>1.121564752043534e-11</v>
       </c>
-      <c r="AZ156" t="inlineStr">
+      <c r="AZ156" t="n">
+        <v>0.9913574582579661</v>
+      </c>
+      <c r="BA156" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB156" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
+      <c r="A157" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5083.fa</t>
         </is>
@@ -25973,14 +27212,22 @@
       <c r="AY157" t="n">
         <v>1.701708381243692e-11</v>
       </c>
-      <c r="AZ157" t="inlineStr">
+      <c r="AZ157" t="n">
+        <v>0.6103902343486828</v>
+      </c>
+      <c r="BA157" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB157" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="inlineStr">
+      <c r="A158" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT50868.fa</t>
         </is>
@@ -26135,14 +27382,22 @@
       <c r="AY158" t="n">
         <v>1.100198612179948e-07</v>
       </c>
-      <c r="AZ158" t="inlineStr">
+      <c r="AZ158" t="n">
+        <v>0.9835405389819678</v>
+      </c>
+      <c r="BA158" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB158" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
+      <c r="A159" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51267.fa</t>
         </is>
@@ -26297,14 +27552,22 @@
       <c r="AY159" t="n">
         <v>1.489087568743965e-10</v>
       </c>
-      <c r="AZ159" t="inlineStr">
+      <c r="AZ159" t="n">
+        <v>0.7141127893014998</v>
+      </c>
+      <c r="BA159" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB159" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="inlineStr">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51274.fa</t>
         </is>
@@ -26459,14 +27722,22 @@
       <c r="AY160" t="n">
         <v>3.018167391996235e-11</v>
       </c>
-      <c r="AZ160" t="inlineStr">
+      <c r="AZ160" t="n">
+        <v>0.5187382417657883</v>
+      </c>
+      <c r="BA160" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB160" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="inlineStr">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51297.fa</t>
         </is>
@@ -26621,14 +27892,22 @@
       <c r="AY161" t="n">
         <v>2.592895495164462e-11</v>
       </c>
-      <c r="AZ161" t="inlineStr">
+      <c r="AZ161" t="n">
+        <v>0.9323305952281494</v>
+      </c>
+      <c r="BA161" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB161" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="inlineStr">
+      <c r="A162" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT52236.fa</t>
         </is>
@@ -26783,14 +28062,22 @@
       <c r="AY162" t="n">
         <v>3.089320386799636e-12</v>
       </c>
-      <c r="AZ162" t="inlineStr">
+      <c r="AZ162" t="n">
+        <v>0.9885863370201636</v>
+      </c>
+      <c r="BA162" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB162" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="inlineStr">
+      <c r="A163" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT52246.fa</t>
         </is>
@@ -26945,14 +28232,22 @@
       <c r="AY163" t="n">
         <v>9.598901004086763e-12</v>
       </c>
-      <c r="AZ163" t="inlineStr">
+      <c r="AZ163" t="n">
+        <v>0.9896590893941927</v>
+      </c>
+      <c r="BA163" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB163" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="inlineStr">
+      <c r="A164" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT52709.fa</t>
         </is>
@@ -27107,14 +28402,22 @@
       <c r="AY164" t="n">
         <v>4.804769357315345e-12</v>
       </c>
-      <c r="AZ164" t="inlineStr">
+      <c r="AZ164" t="n">
+        <v>0.9384572252598997</v>
+      </c>
+      <c r="BA164" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB164" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="inlineStr">
+      <c r="A165" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT52820.fa</t>
         </is>
@@ -27269,14 +28572,22 @@
       <c r="AY165" t="n">
         <v>8.8463640354656e-08</v>
       </c>
-      <c r="AZ165" t="inlineStr">
+      <c r="AZ165" t="n">
+        <v>0.9764912027168596</v>
+      </c>
+      <c r="BA165" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB165" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="inlineStr">
+      <c r="A166" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53065.fa</t>
         </is>
@@ -27431,14 +28742,22 @@
       <c r="AY166" t="n">
         <v>2.709919293988193e-09</v>
       </c>
-      <c r="AZ166" t="inlineStr">
+      <c r="AZ166" t="n">
+        <v>0.9740292150519259</v>
+      </c>
+      <c r="BA166" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB166" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="inlineStr">
+      <c r="A167" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5342.fa</t>
         </is>
@@ -27593,14 +28912,22 @@
       <c r="AY167" t="n">
         <v>6.065110631845591e-09</v>
       </c>
-      <c r="AZ167" t="inlineStr">
+      <c r="AZ167" t="n">
+        <v>0.9589556210805402</v>
+      </c>
+      <c r="BA167" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB167" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="inlineStr">
+      <c r="A168" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53494.fa</t>
         </is>
@@ -27755,14 +29082,22 @@
       <c r="AY168" t="n">
         <v>1.809558804974318e-09</v>
       </c>
-      <c r="AZ168" t="inlineStr">
+      <c r="AZ168" t="n">
+        <v>0.8355394150329858</v>
+      </c>
+      <c r="BA168" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB168" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
+      <c r="A169" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53512.fa</t>
         </is>
@@ -27917,14 +29252,22 @@
       <c r="AY169" t="n">
         <v>0.01080143306985572</v>
       </c>
-      <c r="AZ169" t="inlineStr">
+      <c r="AZ169" t="n">
+        <v>0.1800967734714621</v>
+      </c>
+      <c r="BA169" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB169" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="inlineStr">
+      <c r="A170" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53548.fa</t>
         </is>
@@ -28079,14 +29422,22 @@
       <c r="AY170" t="n">
         <v>7.572951144334467e-12</v>
       </c>
-      <c r="AZ170" t="inlineStr">
+      <c r="AZ170" t="n">
+        <v>0.9881007139906972</v>
+      </c>
+      <c r="BA170" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB170" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="inlineStr">
+      <c r="A171" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53550.fa</t>
         </is>
@@ -28241,14 +29592,22 @@
       <c r="AY171" t="n">
         <v>0.004363950518784846</v>
       </c>
-      <c r="AZ171" t="inlineStr">
+      <c r="AZ171" t="n">
+        <v>0.3550515896582987</v>
+      </c>
+      <c r="BA171" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB171" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="inlineStr">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5358.fa</t>
         </is>
@@ -28403,14 +29762,22 @@
       <c r="AY172" t="n">
         <v>0.01353752964638149</v>
       </c>
-      <c r="AZ172" t="inlineStr">
+      <c r="AZ172" t="n">
+        <v>0.289001944302074</v>
+      </c>
+      <c r="BA172" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB172" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="inlineStr">
+      <c r="A173" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53613.fa</t>
         </is>
@@ -28565,14 +29932,22 @@
       <c r="AY173" t="n">
         <v>5.573138281462195e-07</v>
       </c>
-      <c r="AZ173" t="inlineStr">
+      <c r="AZ173" t="n">
+        <v>0.8869067094855894</v>
+      </c>
+      <c r="BA173" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB173" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="inlineStr">
+      <c r="A174" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53617.fa</t>
         </is>
@@ -28727,14 +30102,22 @@
       <c r="AY174" t="n">
         <v>2.177116450109265e-09</v>
       </c>
-      <c r="AZ174" t="inlineStr">
+      <c r="AZ174" t="n">
+        <v>0.5341070558599331</v>
+      </c>
+      <c r="BA174" t="inlineStr">
+        <is>
+          <t>g__UMGS263</t>
+        </is>
+      </c>
+      <c r="BB174" t="inlineStr">
         <is>
           <t>g__UMGS263</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="inlineStr">
+      <c r="A175" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5371.fa</t>
         </is>
@@ -28889,14 +30272,22 @@
       <c r="AY175" t="n">
         <v>0.07705863485558778</v>
       </c>
-      <c r="AZ175" t="inlineStr">
+      <c r="AZ175" t="n">
+        <v>0.3028669482720954</v>
+      </c>
+      <c r="BA175" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB175" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
+      <c r="A176" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53810.fa</t>
         </is>
@@ -29051,14 +30442,22 @@
       <c r="AY176" t="n">
         <v>1.86833384639382e-09</v>
       </c>
-      <c r="AZ176" t="inlineStr">
+      <c r="AZ176" t="n">
+        <v>0.8289030456049562</v>
+      </c>
+      <c r="BA176" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB176" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="inlineStr">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53979.fa</t>
         </is>
@@ -29213,14 +30612,22 @@
       <c r="AY177" t="n">
         <v>2.529350111737178e-07</v>
       </c>
-      <c r="AZ177" t="inlineStr">
+      <c r="AZ177" t="n">
+        <v>0.871399170263965</v>
+      </c>
+      <c r="BA177" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB177" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="inlineStr">
+      <c r="A178" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5449.fa</t>
         </is>
@@ -29375,14 +30782,22 @@
       <c r="AY178" t="n">
         <v>2.303029163290344e-08</v>
       </c>
-      <c r="AZ178" t="inlineStr">
+      <c r="AZ178" t="n">
+        <v>0.9439743226659705</v>
+      </c>
+      <c r="BA178" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB178" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="inlineStr">
+      <c r="A179" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT54559.fa</t>
         </is>
@@ -29537,14 +30952,22 @@
       <c r="AY179" t="n">
         <v>2.328831491120477e-09</v>
       </c>
-      <c r="AZ179" t="inlineStr">
+      <c r="AZ179" t="n">
+        <v>0.9656792778586212</v>
+      </c>
+      <c r="BA179" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB179" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="inlineStr">
+      <c r="A180" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT54681.fa</t>
         </is>
@@ -29699,14 +31122,22 @@
       <c r="AY180" t="n">
         <v>2.382872653435815e-07</v>
       </c>
-      <c r="AZ180" t="inlineStr">
+      <c r="AZ180" t="n">
+        <v>0.3526832569230185</v>
+      </c>
+      <c r="BA180" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB180" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="A181" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT54926.fa</t>
         </is>
@@ -29861,14 +31292,22 @@
       <c r="AY181" t="n">
         <v>7.052566648567709e-09</v>
       </c>
-      <c r="AZ181" t="inlineStr">
+      <c r="AZ181" t="n">
+        <v>0.9168665519419705</v>
+      </c>
+      <c r="BA181" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB181" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
+      <c r="A182" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT54931.fa</t>
         </is>
@@ -30023,14 +31462,22 @@
       <c r="AY182" t="n">
         <v>9.693369335615821e-10</v>
       </c>
-      <c r="AZ182" t="inlineStr">
+      <c r="AZ182" t="n">
+        <v>0.4940864326956552</v>
+      </c>
+      <c r="BA182" t="inlineStr">
+        <is>
+          <t>g__UMGS263</t>
+        </is>
+      </c>
+      <c r="BB182" t="inlineStr">
         <is>
           <t>g__UMGS263</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="inlineStr">
+      <c r="A183" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT55179.fa</t>
         </is>
@@ -30185,14 +31632,22 @@
       <c r="AY183" t="n">
         <v>9.456353812974062e-09</v>
       </c>
-      <c r="AZ183" t="inlineStr">
+      <c r="AZ183" t="n">
+        <v>0.9227385105957733</v>
+      </c>
+      <c r="BA183" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB183" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="A184" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT55217.fa</t>
         </is>
@@ -30347,14 +31802,22 @@
       <c r="AY184" t="n">
         <v>1.169245237994627e-11</v>
       </c>
-      <c r="AZ184" t="inlineStr">
+      <c r="AZ184" t="n">
+        <v>0.7435408945619448</v>
+      </c>
+      <c r="BA184" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB184" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="inlineStr">
+      <c r="A185" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5525.fa</t>
         </is>
@@ -30509,14 +31972,22 @@
       <c r="AY185" t="n">
         <v>8.418085239182365e-09</v>
       </c>
-      <c r="AZ185" t="inlineStr">
+      <c r="AZ185" t="n">
+        <v>0.9332723710628013</v>
+      </c>
+      <c r="BA185" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB185" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="inlineStr">
+      <c r="A186" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5563.fa</t>
         </is>
@@ -30671,14 +32142,22 @@
       <c r="AY186" t="n">
         <v>5.714773944861236e-08</v>
       </c>
-      <c r="AZ186" t="inlineStr">
+      <c r="AZ186" t="n">
+        <v>0.9286764117752823</v>
+      </c>
+      <c r="BA186" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB186" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
+      <c r="A187" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5635.fa</t>
         </is>
@@ -30833,14 +32312,22 @@
       <c r="AY187" t="n">
         <v>2.351618150132839e-08</v>
       </c>
-      <c r="AZ187" t="inlineStr">
+      <c r="AZ187" t="n">
+        <v>0.9435864040889005</v>
+      </c>
+      <c r="BA187" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB187" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="inlineStr">
+      <c r="A188" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT56414.fa</t>
         </is>
@@ -30995,14 +32482,22 @@
       <c r="AY188" t="n">
         <v>2.00669961994393e-08</v>
       </c>
-      <c r="AZ188" t="inlineStr">
+      <c r="AZ188" t="n">
+        <v>0.9197715447728272</v>
+      </c>
+      <c r="BA188" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB188" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="inlineStr">
+      <c r="A189" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT56652.fa</t>
         </is>
@@ -31157,14 +32652,22 @@
       <c r="AY189" t="n">
         <v>1.101912297905925e-08</v>
       </c>
-      <c r="AZ189" t="inlineStr">
+      <c r="AZ189" t="n">
+        <v>0.9516556380119208</v>
+      </c>
+      <c r="BA189" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB189" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="inlineStr">
+      <c r="A190" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT56660.fa</t>
         </is>
@@ -31319,14 +32822,22 @@
       <c r="AY190" t="n">
         <v>6.204965500044833e-12</v>
       </c>
-      <c r="AZ190" t="inlineStr">
+      <c r="AZ190" t="n">
+        <v>0.9765730157303318</v>
+      </c>
+      <c r="BA190" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB190" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="inlineStr">
+      <c r="A191" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5673.fa</t>
         </is>
@@ -31481,14 +32992,22 @@
       <c r="AY191" t="n">
         <v>2.207837261037722e-09</v>
       </c>
-      <c r="AZ191" t="inlineStr">
+      <c r="AZ191" t="n">
+        <v>0.9033572161737091</v>
+      </c>
+      <c r="BA191" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB191" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="inlineStr">
+      <c r="A192" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT56987.fa</t>
         </is>
@@ -31643,14 +33162,22 @@
       <c r="AY192" t="n">
         <v>8.084714087988158e-12</v>
       </c>
-      <c r="AZ192" t="inlineStr">
+      <c r="AZ192" t="n">
+        <v>0.9883959812150745</v>
+      </c>
+      <c r="BA192" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB192" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="inlineStr">
+      <c r="A193" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57018.fa</t>
         </is>
@@ -31805,14 +33332,22 @@
       <c r="AY193" t="n">
         <v>8.442664590586396e-12</v>
       </c>
-      <c r="AZ193" t="inlineStr">
+      <c r="AZ193" t="n">
+        <v>0.9890933962228772</v>
+      </c>
+      <c r="BA193" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB193" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="inlineStr">
+      <c r="A194" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57096.fa</t>
         </is>
@@ -31967,14 +33502,22 @@
       <c r="AY194" t="n">
         <v>2.764471602904877e-08</v>
       </c>
-      <c r="AZ194" t="inlineStr">
+      <c r="AZ194" t="n">
+        <v>0.8864375986141907</v>
+      </c>
+      <c r="BA194" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB194" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="inlineStr">
+      <c r="A195" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57200.fa</t>
         </is>
@@ -32129,14 +33672,22 @@
       <c r="AY195" t="n">
         <v>0.01146199220918601</v>
       </c>
-      <c r="AZ195" t="inlineStr">
+      <c r="AZ195" t="n">
+        <v>0.275580341285958</v>
+      </c>
+      <c r="BA195" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB195" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="inlineStr">
+      <c r="A196" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57343.fa</t>
         </is>
@@ -32291,14 +33842,22 @@
       <c r="AY196" t="n">
         <v>6.81883595871305e-07</v>
       </c>
-      <c r="AZ196" t="inlineStr">
+      <c r="AZ196" t="n">
+        <v>0.840109196528088</v>
+      </c>
+      <c r="BA196" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB196" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="inlineStr">
+      <c r="A197" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57423.fa</t>
         </is>
@@ -32453,14 +34012,22 @@
       <c r="AY197" t="n">
         <v>2.710360390879161e-09</v>
       </c>
-      <c r="AZ197" t="inlineStr">
+      <c r="AZ197" t="n">
+        <v>0.9214648258492208</v>
+      </c>
+      <c r="BA197" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB197" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="inlineStr">
+      <c r="A198" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57959.fa</t>
         </is>
@@ -32615,14 +34182,22 @@
       <c r="AY198" t="n">
         <v>6.624828142809445e-08</v>
       </c>
-      <c r="AZ198" t="inlineStr">
+      <c r="AZ198" t="n">
+        <v>0.4491280324125668</v>
+      </c>
+      <c r="BA198" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB198" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
+      <c r="A199" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58077.fa</t>
         </is>
@@ -32777,14 +34352,22 @@
       <c r="AY199" t="n">
         <v>3.892053410142069e-08</v>
       </c>
-      <c r="AZ199" t="inlineStr">
+      <c r="AZ199" t="n">
+        <v>0.4872007482536439</v>
+      </c>
+      <c r="BA199" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
+      <c r="BB199" t="inlineStr">
         <is>
           <t>g__CAG-964</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
+      <c r="A200" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58166.fa</t>
         </is>
@@ -32939,14 +34522,22 @@
       <c r="AY200" t="n">
         <v>2.009818579632084e-07</v>
       </c>
-      <c r="AZ200" t="inlineStr">
+      <c r="AZ200" t="n">
+        <v>0.9195567967424697</v>
+      </c>
+      <c r="BA200" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB200" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="inlineStr">
+      <c r="A201" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58318.fa</t>
         </is>
@@ -33101,14 +34692,22 @@
       <c r="AY201" t="n">
         <v>1.169135336752249e-08</v>
       </c>
-      <c r="AZ201" t="inlineStr">
+      <c r="AZ201" t="n">
+        <v>0.9734038294203107</v>
+      </c>
+      <c r="BA201" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB201" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="inlineStr">
+      <c r="A202" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58338.fa</t>
         </is>
@@ -33263,14 +34862,22 @@
       <c r="AY202" t="n">
         <v>1.187980498966032e-07</v>
       </c>
-      <c r="AZ202" t="inlineStr">
+      <c r="AZ202" t="n">
+        <v>0.8803076730419964</v>
+      </c>
+      <c r="BA202" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB202" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="inlineStr">
+      <c r="A203" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58432.fa</t>
         </is>
@@ -33425,14 +35032,22 @@
       <c r="AY203" t="n">
         <v>8.036638534245814e-12</v>
       </c>
-      <c r="AZ203" t="inlineStr">
+      <c r="AZ203" t="n">
+        <v>0.9778505982885252</v>
+      </c>
+      <c r="BA203" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB203" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="inlineStr">
+      <c r="A204" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58437.fa</t>
         </is>
@@ -33587,14 +35202,22 @@
       <c r="AY204" t="n">
         <v>1.379706987006553e-07</v>
       </c>
-      <c r="AZ204" t="inlineStr">
+      <c r="AZ204" t="n">
+        <v>0.9065063219174273</v>
+      </c>
+      <c r="BA204" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB204" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="inlineStr">
+      <c r="A205" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58607.fa</t>
         </is>
@@ -33749,14 +35372,22 @@
       <c r="AY205" t="n">
         <v>0.01228003677509493</v>
       </c>
-      <c r="AZ205" t="inlineStr">
+      <c r="AZ205" t="n">
+        <v>0.2056368437708018</v>
+      </c>
+      <c r="BA205" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB205" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
+      <c r="A206" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58706.fa</t>
         </is>
@@ -33911,14 +35542,22 @@
       <c r="AY206" t="n">
         <v>0.06320003264289543</v>
       </c>
-      <c r="AZ206" t="inlineStr">
+      <c r="AZ206" t="n">
+        <v>0.1897624270722978</v>
+      </c>
+      <c r="BA206" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB206" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr">
+      <c r="A207" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58856.fa</t>
         </is>
@@ -34073,14 +35712,22 @@
       <c r="AY207" t="n">
         <v>3.748378826210872e-06</v>
       </c>
-      <c r="AZ207" t="inlineStr">
+      <c r="AZ207" t="n">
+        <v>0.7075934550172869</v>
+      </c>
+      <c r="BA207" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB207" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="inlineStr">
+      <c r="A208" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58896.fa</t>
         </is>
@@ -34235,14 +35882,22 @@
       <c r="AY208" t="n">
         <v>0.01501739063789341</v>
       </c>
-      <c r="AZ208" t="inlineStr">
+      <c r="AZ208" t="n">
+        <v>0.5072461744077122</v>
+      </c>
+      <c r="BA208" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB208" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="inlineStr">
+      <c r="A209" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT58937.fa</t>
         </is>
@@ -34397,14 +36052,22 @@
       <c r="AY209" t="n">
         <v>9.191617730665215e-10</v>
       </c>
-      <c r="AZ209" t="inlineStr">
+      <c r="AZ209" t="n">
+        <v>0.9706286713746455</v>
+      </c>
+      <c r="BA209" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB209" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
+      <c r="A210" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5899.fa</t>
         </is>
@@ -34559,14 +36222,22 @@
       <c r="AY210" t="n">
         <v>0.05395717724142392</v>
       </c>
-      <c r="AZ210" t="inlineStr">
+      <c r="AZ210" t="n">
+        <v>0.1493022348390916</v>
+      </c>
+      <c r="BA210" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB210" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
+      <c r="A211" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5914.fa</t>
         </is>
@@ -34721,14 +36392,22 @@
       <c r="AY211" t="n">
         <v>5.93944095296923e-12</v>
       </c>
-      <c r="AZ211" t="inlineStr">
+      <c r="AZ211" t="n">
+        <v>0.9846052432122877</v>
+      </c>
+      <c r="BA211" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB211" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
+      <c r="A212" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59155.fa</t>
         </is>
@@ -34883,14 +36562,22 @@
       <c r="AY212" t="n">
         <v>1.960740723377234e-09</v>
       </c>
-      <c r="AZ212" t="inlineStr">
+      <c r="AZ212" t="n">
+        <v>0.962229817007881</v>
+      </c>
+      <c r="BA212" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB212" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="inlineStr">
+      <c r="A213" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59412.fa</t>
         </is>
@@ -35045,14 +36732,22 @@
       <c r="AY213" t="n">
         <v>0.01890316070616707</v>
       </c>
-      <c r="AZ213" t="inlineStr">
+      <c r="AZ213" t="n">
+        <v>0.2036911706145573</v>
+      </c>
+      <c r="BA213" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB213" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="inlineStr">
+      <c r="A214" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59515.fa</t>
         </is>
@@ -35207,14 +36902,22 @@
       <c r="AY214" t="n">
         <v>2.334916979967153e-08</v>
       </c>
-      <c r="AZ214" t="inlineStr">
+      <c r="AZ214" t="n">
+        <v>0.8490129454860391</v>
+      </c>
+      <c r="BA214" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB214" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="inlineStr">
+      <c r="A215" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59716.fa</t>
         </is>
@@ -35369,14 +37072,22 @@
       <c r="AY215" t="n">
         <v>2.931292540863025e-08</v>
       </c>
-      <c r="AZ215" t="inlineStr">
+      <c r="AZ215" t="n">
+        <v>0.9505972495940042</v>
+      </c>
+      <c r="BA215" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB215" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
+      <c r="A216" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59727.fa</t>
         </is>
@@ -35531,14 +37242,22 @@
       <c r="AY216" t="n">
         <v>1.750208704527076e-08</v>
       </c>
-      <c r="AZ216" t="inlineStr">
+      <c r="AZ216" t="n">
+        <v>0.9058611239599662</v>
+      </c>
+      <c r="BA216" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB216" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="inlineStr">
+      <c r="A217" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5979.fa</t>
         </is>
@@ -35693,14 +37412,22 @@
       <c r="AY217" t="n">
         <v>2.583547734991509e-07</v>
       </c>
-      <c r="AZ217" t="inlineStr">
+      <c r="AZ217" t="n">
+        <v>0.8724992121877214</v>
+      </c>
+      <c r="BA217" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB217" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
+      <c r="A218" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6013.fa</t>
         </is>
@@ -35855,14 +37582,22 @@
       <c r="AY218" t="n">
         <v>2.450690092456846e-12</v>
       </c>
-      <c r="AZ218" t="inlineStr">
+      <c r="AZ218" t="n">
+        <v>0.9913211237674804</v>
+      </c>
+      <c r="BA218" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB218" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="inlineStr">
+      <c r="A219" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT60386.fa</t>
         </is>
@@ -36017,14 +37752,22 @@
       <c r="AY219" t="n">
         <v>0.03669201695763579</v>
       </c>
-      <c r="AZ219" t="inlineStr">
+      <c r="AZ219" t="n">
+        <v>0.1798661506283249</v>
+      </c>
+      <c r="BA219" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB219" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
+      <c r="A220" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT60414.fa</t>
         </is>
@@ -36179,14 +37922,22 @@
       <c r="AY220" t="n">
         <v>2.479510782702009e-08</v>
       </c>
-      <c r="AZ220" t="inlineStr">
+      <c r="AZ220" t="n">
+        <v>0.9258553351631469</v>
+      </c>
+      <c r="BA220" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB220" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="inlineStr">
+      <c r="A221" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT60491.fa</t>
         </is>
@@ -36341,14 +38092,22 @@
       <c r="AY221" t="n">
         <v>3.500066546891594e-08</v>
       </c>
-      <c r="AZ221" t="inlineStr">
+      <c r="AZ221" t="n">
+        <v>0.9354201187200438</v>
+      </c>
+      <c r="BA221" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB221" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="inlineStr">
+      <c r="A222" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT60769.fa</t>
         </is>
@@ -36503,14 +38262,22 @@
       <c r="AY222" t="n">
         <v>4.727684494882262e-09</v>
       </c>
-      <c r="AZ222" t="inlineStr">
+      <c r="AZ222" t="n">
+        <v>0.9251712645545987</v>
+      </c>
+      <c r="BA222" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB222" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="inlineStr">
+      <c r="A223" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT60874.fa</t>
         </is>
@@ -36665,14 +38432,22 @@
       <c r="AY223" t="n">
         <v>2.572131554759677e-10</v>
       </c>
-      <c r="AZ223" t="inlineStr">
+      <c r="AZ223" t="n">
+        <v>0.9129259357235741</v>
+      </c>
+      <c r="BA223" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB223" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="inlineStr">
+      <c r="A224" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61036.fa</t>
         </is>
@@ -36827,14 +38602,22 @@
       <c r="AY224" t="n">
         <v>0.03642807729068667</v>
       </c>
-      <c r="AZ224" t="inlineStr">
+      <c r="AZ224" t="n">
+        <v>0.2794193314947703</v>
+      </c>
+      <c r="BA224" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB224" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
+      <c r="A225" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61037.fa</t>
         </is>
@@ -36989,14 +38772,22 @@
       <c r="AY225" t="n">
         <v>3.90681219525459e-07</v>
       </c>
-      <c r="AZ225" t="inlineStr">
+      <c r="AZ225" t="n">
+        <v>0.8907924941835998</v>
+      </c>
+      <c r="BA225" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB225" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
+      <c r="A226" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61197.fa</t>
         </is>
@@ -37151,14 +38942,22 @@
       <c r="AY226" t="n">
         <v>2.234103623154348e-09</v>
       </c>
-      <c r="AZ226" t="inlineStr">
+      <c r="AZ226" t="n">
+        <v>0.9597223461901028</v>
+      </c>
+      <c r="BA226" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB226" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="inlineStr">
+      <c r="A227" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61259.fa</t>
         </is>
@@ -37313,14 +39112,22 @@
       <c r="AY227" t="n">
         <v>7.301310865328262e-09</v>
       </c>
-      <c r="AZ227" t="inlineStr">
+      <c r="AZ227" t="n">
+        <v>0.9558720234519061</v>
+      </c>
+      <c r="BA227" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB227" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="inlineStr">
+      <c r="A228" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61416.fa</t>
         </is>
@@ -37475,14 +39282,22 @@
       <c r="AY228" t="n">
         <v>5.917940382613645e-10</v>
       </c>
-      <c r="AZ228" t="inlineStr">
+      <c r="AZ228" t="n">
+        <v>0.9681363426962596</v>
+      </c>
+      <c r="BA228" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB228" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61584.fa</t>
         </is>
@@ -37637,14 +39452,22 @@
       <c r="AY229" t="n">
         <v>2.154630552553371e-07</v>
       </c>
-      <c r="AZ229" t="inlineStr">
+      <c r="AZ229" t="n">
+        <v>0.9325347323611951</v>
+      </c>
+      <c r="BA229" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB229" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="inlineStr">
+      <c r="A230" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61918.fa</t>
         </is>
@@ -37799,14 +39622,22 @@
       <c r="AY230" t="n">
         <v>1.204289209066512e-11</v>
       </c>
-      <c r="AZ230" t="inlineStr">
+      <c r="AZ230" t="n">
+        <v>0.9876754380478772</v>
+      </c>
+      <c r="BA230" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB230" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="inlineStr">
+      <c r="A231" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT62429.fa</t>
         </is>
@@ -37961,14 +39792,22 @@
       <c r="AY231" t="n">
         <v>1.038579708434931e-07</v>
       </c>
-      <c r="AZ231" t="inlineStr">
+      <c r="AZ231" t="n">
+        <v>0.7510905417046215</v>
+      </c>
+      <c r="BA231" t="inlineStr">
+        <is>
+          <t>g__RUG420</t>
+        </is>
+      </c>
+      <c r="BB231" t="inlineStr">
         <is>
           <t>g__RUG420</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="inlineStr">
+      <c r="A232" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT62485.fa</t>
         </is>
@@ -38123,14 +39962,22 @@
       <c r="AY232" t="n">
         <v>3.343047878105451e-10</v>
       </c>
-      <c r="AZ232" t="inlineStr">
+      <c r="AZ232" t="n">
+        <v>0.96468347176377</v>
+      </c>
+      <c r="BA232" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB232" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="inlineStr">
+      <c r="A233" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT62629.fa</t>
         </is>
@@ -38285,14 +40132,22 @@
       <c r="AY233" t="n">
         <v>1.471241950046074e-07</v>
       </c>
-      <c r="AZ233" t="inlineStr">
+      <c r="AZ233" t="n">
+        <v>0.9062201436016341</v>
+      </c>
+      <c r="BA233" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB233" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="inlineStr">
+      <c r="A234" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT62657.fa</t>
         </is>
@@ -38447,14 +40302,22 @@
       <c r="AY234" t="n">
         <v>4.627364557734005e-10</v>
       </c>
-      <c r="AZ234" t="inlineStr">
+      <c r="AZ234" t="n">
+        <v>0.9362037724891095</v>
+      </c>
+      <c r="BA234" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB234" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="inlineStr">
+      <c r="A235" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT62790.fa</t>
         </is>
@@ -38609,14 +40472,22 @@
       <c r="AY235" t="n">
         <v>6.677747782615679e-08</v>
       </c>
-      <c r="AZ235" t="inlineStr">
+      <c r="AZ235" t="n">
+        <v>0.7862839773312522</v>
+      </c>
+      <c r="BA235" t="inlineStr">
+        <is>
+          <t>g__Anaeromassilibacillus</t>
+        </is>
+      </c>
+      <c r="BB235" t="inlineStr">
         <is>
           <t>g__Anaeromassilibacillus</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="inlineStr">
+      <c r="A236" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6612.fa</t>
         </is>
@@ -38771,14 +40642,22 @@
       <c r="AY236" t="n">
         <v>3.024616359960969e-08</v>
       </c>
-      <c r="AZ236" t="inlineStr">
+      <c r="AZ236" t="n">
+        <v>0.4969092336090235</v>
+      </c>
+      <c r="BA236" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB236" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="inlineStr">
+      <c r="A237" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT66514.fa</t>
         </is>
@@ -38933,14 +40812,22 @@
       <c r="AY237" t="n">
         <v>2.874255131933991e-07</v>
       </c>
-      <c r="AZ237" t="inlineStr">
+      <c r="AZ237" t="n">
+        <v>0.8503970044085545</v>
+      </c>
+      <c r="BA237" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB237" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="inlineStr">
+      <c r="A238" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT66714.fa</t>
         </is>
@@ -39095,14 +40982,22 @@
       <c r="AY238" t="n">
         <v>5.933091683876679e-10</v>
       </c>
-      <c r="AZ238" t="inlineStr">
+      <c r="AZ238" t="n">
+        <v>0.6893392346928365</v>
+      </c>
+      <c r="BA238" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB238" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="inlineStr">
+      <c r="A239" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT66918.fa</t>
         </is>
@@ -39257,14 +41152,22 @@
       <c r="AY239" t="n">
         <v>2.341600562260245e-09</v>
       </c>
-      <c r="AZ239" t="inlineStr">
+      <c r="AZ239" t="n">
+        <v>0.969327236419224</v>
+      </c>
+      <c r="BA239" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB239" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="inlineStr">
+      <c r="A240" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68204.fa</t>
         </is>
@@ -39419,14 +41322,22 @@
       <c r="AY240" t="n">
         <v>9.952502650524802e-08</v>
       </c>
-      <c r="AZ240" t="inlineStr">
+      <c r="AZ240" t="n">
+        <v>0.8565037584376847</v>
+      </c>
+      <c r="BA240" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB240" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="inlineStr">
+      <c r="A241" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68316.fa</t>
         </is>
@@ -39581,14 +41492,22 @@
       <c r="AY241" t="n">
         <v>1.957207610427349e-08</v>
       </c>
-      <c r="AZ241" t="inlineStr">
+      <c r="AZ241" t="n">
+        <v>0.9286481902855469</v>
+      </c>
+      <c r="BA241" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB241" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="inlineStr">
+      <c r="A242" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT69244.fa</t>
         </is>
@@ -39743,14 +41662,22 @@
       <c r="AY242" t="n">
         <v>1.890028243884384e-08</v>
       </c>
-      <c r="AZ242" t="inlineStr">
+      <c r="AZ242" t="n">
+        <v>0.9490252820307475</v>
+      </c>
+      <c r="BA242" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB242" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="inlineStr">
+      <c r="A243" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT69285.fa</t>
         </is>
@@ -39905,14 +41832,22 @@
       <c r="AY243" t="n">
         <v>5.464398493223369e-07</v>
       </c>
-      <c r="AZ243" t="inlineStr">
+      <c r="AZ243" t="n">
+        <v>0.7569666329428241</v>
+      </c>
+      <c r="BA243" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB243" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
+      <c r="A244" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT70172.fa</t>
         </is>
@@ -40067,14 +42002,22 @@
       <c r="AY244" t="n">
         <v>1.903506740824168e-08</v>
       </c>
-      <c r="AZ244" t="inlineStr">
+      <c r="AZ244" t="n">
+        <v>0.9088172604652192</v>
+      </c>
+      <c r="BA244" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB244" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="inlineStr">
+      <c r="A245" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT71140.fa</t>
         </is>
@@ -40229,14 +42172,22 @@
       <c r="AY245" t="n">
         <v>5.179183072922224e-08</v>
       </c>
-      <c r="AZ245" t="inlineStr">
+      <c r="AZ245" t="n">
+        <v>0.9265993256126686</v>
+      </c>
+      <c r="BA245" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB245" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="inlineStr">
+      <c r="A246" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT73018.fa</t>
         </is>
@@ -40391,14 +42342,22 @@
       <c r="AY246" t="n">
         <v>1.682253195112378e-10</v>
       </c>
-      <c r="AZ246" t="inlineStr">
+      <c r="AZ246" t="n">
+        <v>0.9780503087083925</v>
+      </c>
+      <c r="BA246" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB246" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="inlineStr">
+      <c r="A247" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74428.fa</t>
         </is>
@@ -40553,14 +42512,22 @@
       <c r="AY247" t="n">
         <v>4.348762425581616e-10</v>
       </c>
-      <c r="AZ247" t="inlineStr">
+      <c r="AZ247" t="n">
+        <v>0.9679133810124971</v>
+      </c>
+      <c r="BA247" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB247" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="inlineStr">
+      <c r="A248" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74507.fa</t>
         </is>
@@ -40715,14 +42682,22 @@
       <c r="AY248" t="n">
         <v>1.070985086817542e-08</v>
       </c>
-      <c r="AZ248" t="inlineStr">
+      <c r="AZ248" t="n">
+        <v>0.9443808474266217</v>
+      </c>
+      <c r="BA248" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB248" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr">
+      <c r="A249" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74585.fa</t>
         </is>
@@ -40877,14 +42852,22 @@
       <c r="AY249" t="n">
         <v>5.033775669070267e-10</v>
       </c>
-      <c r="AZ249" t="inlineStr">
+      <c r="AZ249" t="n">
+        <v>0.8729855380404243</v>
+      </c>
+      <c r="BA249" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB249" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
+      <c r="A250" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74686.fa</t>
         </is>
@@ -41039,14 +43022,22 @@
       <c r="AY250" t="n">
         <v>1.738224205863048e-10</v>
       </c>
-      <c r="AZ250" t="inlineStr">
+      <c r="AZ250" t="n">
+        <v>0.9427981627940626</v>
+      </c>
+      <c r="BA250" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB250" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
+      <c r="A251" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT75018.fa</t>
         </is>
@@ -41201,14 +43192,22 @@
       <c r="AY251" t="n">
         <v>6.088435142808384e-10</v>
       </c>
-      <c r="AZ251" t="inlineStr">
+      <c r="AZ251" t="n">
+        <v>0.8569817173534287</v>
+      </c>
+      <c r="BA251" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB251" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="inlineStr">
+      <c r="A252" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT75063.fa</t>
         </is>
@@ -41363,14 +43362,22 @@
       <c r="AY252" t="n">
         <v>2.317501736111755e-08</v>
       </c>
-      <c r="AZ252" t="inlineStr">
+      <c r="AZ252" t="n">
+        <v>0.8584705010585159</v>
+      </c>
+      <c r="BA252" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB252" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="inlineStr">
+      <c r="A253" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT75133.fa</t>
         </is>
@@ -41525,14 +43532,22 @@
       <c r="AY253" t="n">
         <v>7.448795663615484e-09</v>
       </c>
-      <c r="AZ253" t="inlineStr">
+      <c r="AZ253" t="n">
+        <v>0.9635965511685343</v>
+      </c>
+      <c r="BA253" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB253" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
+      <c r="A254" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT75928.fa</t>
         </is>
@@ -41687,14 +43702,22 @@
       <c r="AY254" t="n">
         <v>1.819346793465819e-08</v>
       </c>
-      <c r="AZ254" t="inlineStr">
+      <c r="AZ254" t="n">
+        <v>0.914459576582168</v>
+      </c>
+      <c r="BA254" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB254" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="inlineStr">
+      <c r="A255" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7598.fa</t>
         </is>
@@ -41849,14 +43872,22 @@
       <c r="AY255" t="n">
         <v>4.773037903413086e-10</v>
       </c>
-      <c r="AZ255" t="inlineStr">
+      <c r="AZ255" t="n">
+        <v>0.5959699306705633</v>
+      </c>
+      <c r="BA255" t="inlineStr">
+        <is>
+          <t>g__UBA1081</t>
+        </is>
+      </c>
+      <c r="BB255" t="inlineStr">
         <is>
           <t>g__UBA1081</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="inlineStr">
+      <c r="A256" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT76200.fa</t>
         </is>
@@ -42011,14 +44042,22 @@
       <c r="AY256" t="n">
         <v>2.882216901362159e-11</v>
       </c>
-      <c r="AZ256" t="inlineStr">
+      <c r="AZ256" t="n">
+        <v>0.9872267872619809</v>
+      </c>
+      <c r="BA256" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB256" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="inlineStr">
+      <c r="A257" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7654.fa</t>
         </is>
@@ -42173,14 +44212,22 @@
       <c r="AY257" t="n">
         <v>1.533090762341164e-05</v>
       </c>
-      <c r="AZ257" t="inlineStr">
+      <c r="AZ257" t="n">
+        <v>0.9239337660280779</v>
+      </c>
+      <c r="BA257" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB257" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="inlineStr">
+      <c r="A258" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT76659.fa</t>
         </is>
@@ -42335,14 +44382,22 @@
       <c r="AY258" t="n">
         <v>8.902766877306091e-08</v>
       </c>
-      <c r="AZ258" t="inlineStr">
+      <c r="AZ258" t="n">
+        <v>0.8963489876837111</v>
+      </c>
+      <c r="BA258" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB258" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="inlineStr">
+      <c r="A259" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7728.fa</t>
         </is>
@@ -42497,14 +44552,22 @@
       <c r="AY259" t="n">
         <v>1.512913044615769e-08</v>
       </c>
-      <c r="AZ259" t="inlineStr">
+      <c r="AZ259" t="n">
+        <v>0.969787214971199</v>
+      </c>
+      <c r="BA259" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB259" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="inlineStr">
+      <c r="A260" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7733.fa</t>
         </is>
@@ -42659,14 +44722,22 @@
       <c r="AY260" t="n">
         <v>7.409247943017141e-09</v>
       </c>
-      <c r="AZ260" t="inlineStr">
+      <c r="AZ260" t="n">
+        <v>0.9802255073452824</v>
+      </c>
+      <c r="BA260" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB260" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="inlineStr">
+      <c r="A261" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT77386.fa</t>
         </is>
@@ -42821,14 +44892,22 @@
       <c r="AY261" t="n">
         <v>1.166291902974258e-09</v>
       </c>
-      <c r="AZ261" t="inlineStr">
+      <c r="AZ261" t="n">
+        <v>0.7352386129083245</v>
+      </c>
+      <c r="BA261" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB261" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="inlineStr">
+      <c r="A262" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7746.fa</t>
         </is>
@@ -42983,14 +45062,22 @@
       <c r="AY262" t="n">
         <v>5.837283797138858e-07</v>
       </c>
-      <c r="AZ262" t="inlineStr">
+      <c r="AZ262" t="n">
+        <v>0.6439788089491846</v>
+      </c>
+      <c r="BA262" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB262" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="inlineStr">
+      <c r="A263" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7779.fa</t>
         </is>
@@ -43145,14 +45232,22 @@
       <c r="AY263" t="n">
         <v>2.829259043687233e-08</v>
       </c>
-      <c r="AZ263" t="inlineStr">
+      <c r="AZ263" t="n">
+        <v>0.8854686379243664</v>
+      </c>
+      <c r="BA263" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB263" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="inlineStr">
+      <c r="A264" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT77996.fa</t>
         </is>
@@ -43307,14 +45402,22 @@
       <c r="AY264" t="n">
         <v>1.353247898539639e-08</v>
       </c>
-      <c r="AZ264" t="inlineStr">
+      <c r="AZ264" t="n">
+        <v>0.886621522249767</v>
+      </c>
+      <c r="BA264" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB264" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="inlineStr">
+      <c r="A265" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78002.fa</t>
         </is>
@@ -43469,14 +45572,22 @@
       <c r="AY265" t="n">
         <v>5.380259300199317e-12</v>
       </c>
-      <c r="AZ265" t="inlineStr">
+      <c r="AZ265" t="n">
+        <v>0.9913659167505128</v>
+      </c>
+      <c r="BA265" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB265" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="inlineStr">
+      <c r="A266" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78247.fa</t>
         </is>
@@ -43631,14 +45742,22 @@
       <c r="AY266" t="n">
         <v>5.780910258362712e-11</v>
       </c>
-      <c r="AZ266" t="inlineStr">
+      <c r="AZ266" t="n">
+        <v>0.9894910298275382</v>
+      </c>
+      <c r="BA266" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB266" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="inlineStr">
+      <c r="A267" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78280.fa</t>
         </is>
@@ -43793,14 +45912,22 @@
       <c r="AY267" t="n">
         <v>5.794735796271912e-11</v>
       </c>
-      <c r="AZ267" t="inlineStr">
+      <c r="AZ267" t="n">
+        <v>0.9873245939175158</v>
+      </c>
+      <c r="BA267" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB267" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="inlineStr">
+      <c r="A268" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78307.fa</t>
         </is>
@@ -43955,14 +46082,22 @@
       <c r="AY268" t="n">
         <v>3.985802102423859e-12</v>
       </c>
-      <c r="AZ268" t="inlineStr">
+      <c r="AZ268" t="n">
+        <v>0.991255883824923</v>
+      </c>
+      <c r="BA268" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB268" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="inlineStr">
+      <c r="A269" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78377.fa</t>
         </is>
@@ -44117,14 +46252,22 @@
       <c r="AY269" t="n">
         <v>5.794735796271912e-11</v>
       </c>
-      <c r="AZ269" t="inlineStr">
+      <c r="AZ269" t="n">
+        <v>0.9873245939175158</v>
+      </c>
+      <c r="BA269" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB269" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="inlineStr">
+      <c r="A270" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78403.fa</t>
         </is>
@@ -44279,14 +46422,22 @@
       <c r="AY270" t="n">
         <v>1.10923132881259e-09</v>
       </c>
-      <c r="AZ270" t="inlineStr">
+      <c r="AZ270" t="n">
+        <v>0.9488393616347953</v>
+      </c>
+      <c r="BA270" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB270" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="inlineStr">
+      <c r="A271" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7849.fa</t>
         </is>
@@ -44441,14 +46592,22 @@
       <c r="AY271" t="n">
         <v>6.927222999871223e-11</v>
       </c>
-      <c r="AZ271" t="inlineStr">
+      <c r="AZ271" t="n">
+        <v>0.6487534250680859</v>
+      </c>
+      <c r="BA271" t="inlineStr">
+        <is>
+          <t>g__UBA1227</t>
+        </is>
+      </c>
+      <c r="BB271" t="inlineStr">
         <is>
           <t>g__UBA1227</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="inlineStr">
+      <c r="A272" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7852.fa</t>
         </is>
@@ -44603,14 +46762,22 @@
       <c r="AY272" t="n">
         <v>0.0001326456142858086</v>
       </c>
-      <c r="AZ272" t="inlineStr">
+      <c r="AZ272" t="n">
+        <v>0.7015201855748031</v>
+      </c>
+      <c r="BA272" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB272" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="inlineStr">
+      <c r="A273" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78564.fa</t>
         </is>
@@ -44765,14 +46932,22 @@
       <c r="AY273" t="n">
         <v>1.560481350673596e-08</v>
       </c>
-      <c r="AZ273" t="inlineStr">
+      <c r="AZ273" t="n">
+        <v>0.9721649742157356</v>
+      </c>
+      <c r="BA273" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB273" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="inlineStr">
+      <c r="A274" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78632.fa</t>
         </is>
@@ -44927,14 +47102,22 @@
       <c r="AY274" t="n">
         <v>7.792403981340333e-09</v>
       </c>
-      <c r="AZ274" t="inlineStr">
+      <c r="AZ274" t="n">
+        <v>0.8631299462926307</v>
+      </c>
+      <c r="BA274" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB274" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="inlineStr">
+      <c r="A275" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78914.fa</t>
         </is>
@@ -45089,14 +47272,22 @@
       <c r="AY275" t="n">
         <v>3.620690241417878e-12</v>
       </c>
-      <c r="AZ275" t="inlineStr">
+      <c r="AZ275" t="n">
+        <v>0.9899017018217132</v>
+      </c>
+      <c r="BA275" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB275" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="inlineStr">
+      <c r="A276" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78958.fa</t>
         </is>
@@ -45251,14 +47442,22 @@
       <c r="AY276" t="n">
         <v>2.753071899811591e-07</v>
       </c>
-      <c r="AZ276" t="inlineStr">
+      <c r="AZ276" t="n">
+        <v>0.9264989782201352</v>
+      </c>
+      <c r="BA276" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB276" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="inlineStr">
+      <c r="A277" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT78976.fa</t>
         </is>
@@ -45413,14 +47612,22 @@
       <c r="AY277" t="n">
         <v>7.116487223157277e-09</v>
       </c>
-      <c r="AZ277" t="inlineStr">
+      <c r="AZ277" t="n">
+        <v>0.9051952409067835</v>
+      </c>
+      <c r="BA277" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB277" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="inlineStr">
+      <c r="A278" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT79013.fa</t>
         </is>
@@ -45575,14 +47782,22 @@
       <c r="AY278" t="n">
         <v>4.224459302440129e-11</v>
       </c>
-      <c r="AZ278" t="inlineStr">
+      <c r="AZ278" t="n">
+        <v>0.9377468999724028</v>
+      </c>
+      <c r="BA278" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB278" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="inlineStr">
+      <c r="A279" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT79048.fa</t>
         </is>
@@ -45737,14 +47952,22 @@
       <c r="AY279" t="n">
         <v>5.746910283099953e-12</v>
       </c>
-      <c r="AZ279" t="inlineStr">
+      <c r="AZ279" t="n">
+        <v>0.9906847173495973</v>
+      </c>
+      <c r="BA279" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB279" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="inlineStr">
+      <c r="A280" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT79096.fa</t>
         </is>
@@ -45899,14 +48122,22 @@
       <c r="AY280" t="n">
         <v>6.980593683819482e-09</v>
       </c>
-      <c r="AZ280" t="inlineStr">
+      <c r="AZ280" t="n">
+        <v>0.9365223175507553</v>
+      </c>
+      <c r="BA280" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB280" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="inlineStr">
+      <c r="A281" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7944.fa</t>
         </is>
@@ -46061,14 +48292,22 @@
       <c r="AY281" t="n">
         <v>3.562242448434005e-11</v>
       </c>
-      <c r="AZ281" t="inlineStr">
+      <c r="AZ281" t="n">
+        <v>0.9931431739206545</v>
+      </c>
+      <c r="BA281" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB281" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="inlineStr">
+      <c r="A282" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7957.fa</t>
         </is>
@@ -46223,14 +48462,22 @@
       <c r="AY282" t="n">
         <v>4.190243258815053e-13</v>
       </c>
-      <c r="AZ282" t="inlineStr">
+      <c r="AZ282" t="n">
+        <v>0.9242063349364403</v>
+      </c>
+      <c r="BA282" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB282" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="inlineStr">
+      <c r="A283" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7988.fa</t>
         </is>
@@ -46385,14 +48632,22 @@
       <c r="AY283" t="n">
         <v>1.429483745337316e-09</v>
       </c>
-      <c r="AZ283" t="inlineStr">
+      <c r="AZ283" t="n">
+        <v>0.3720558034530904</v>
+      </c>
+      <c r="BA283" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
+      <c r="BB283" t="inlineStr">
         <is>
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="inlineStr">
+      <c r="A284" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80007.fa</t>
         </is>
@@ -46547,14 +48802,22 @@
       <c r="AY284" t="n">
         <v>0.08702337912889603</v>
       </c>
-      <c r="AZ284" t="inlineStr">
+      <c r="AZ284" t="n">
+        <v>0.4047076194264199</v>
+      </c>
+      <c r="BA284" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB284" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="inlineStr">
+      <c r="A285" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80052.fa</t>
         </is>
@@ -46709,14 +48972,22 @@
       <c r="AY285" t="n">
         <v>0.06041322038225239</v>
       </c>
-      <c r="AZ285" t="inlineStr">
+      <c r="AZ285" t="n">
+        <v>0.1909941099784956</v>
+      </c>
+      <c r="BA285" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB285" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="inlineStr">
+      <c r="A286" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80383.fa</t>
         </is>
@@ -46871,14 +49142,22 @@
       <c r="AY286" t="n">
         <v>0.1765539257305409</v>
       </c>
-      <c r="AZ286" t="inlineStr">
+      <c r="AZ286" t="n">
+        <v>0.2924975360895228</v>
+      </c>
+      <c r="BA286" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB286" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="inlineStr">
+      <c r="A287" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8056.fa</t>
         </is>
@@ -47033,14 +49312,22 @@
       <c r="AY287" t="n">
         <v>7.670966800201231e-11</v>
       </c>
-      <c r="AZ287" t="inlineStr">
+      <c r="AZ287" t="n">
+        <v>0.9903910007083039</v>
+      </c>
+      <c r="BA287" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB287" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="inlineStr">
+      <c r="A288" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80561.fa</t>
         </is>
@@ -47195,14 +49482,22 @@
       <c r="AY288" t="n">
         <v>0.06037612732459337</v>
       </c>
-      <c r="AZ288" t="inlineStr">
+      <c r="AZ288" t="n">
+        <v>0.2390545899858656</v>
+      </c>
+      <c r="BA288" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB288" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="inlineStr">
+      <c r="A289" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80758.fa</t>
         </is>
@@ -47357,14 +49652,22 @@
       <c r="AY289" t="n">
         <v>7.627085417191773e-08</v>
       </c>
-      <c r="AZ289" t="inlineStr">
+      <c r="AZ289" t="n">
+        <v>0.9130830742082253</v>
+      </c>
+      <c r="BA289" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB289" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="inlineStr">
+      <c r="A290" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8080.fa</t>
         </is>
@@ -47519,14 +49822,22 @@
       <c r="AY290" t="n">
         <v>1.019392646420807e-11</v>
       </c>
-      <c r="AZ290" t="inlineStr">
+      <c r="AZ290" t="n">
+        <v>0.9853108592554458</v>
+      </c>
+      <c r="BA290" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB290" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="inlineStr">
+      <c r="A291" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT80925.fa</t>
         </is>
@@ -47681,14 +49992,22 @@
       <c r="AY291" t="n">
         <v>0.08562663392929663</v>
       </c>
-      <c r="AZ291" t="inlineStr">
+      <c r="AZ291" t="n">
+        <v>0.2146136393545332</v>
+      </c>
+      <c r="BA291" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB291" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="inlineStr">
+      <c r="A292" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT81029.fa</t>
         </is>
@@ -47843,14 +50162,22 @@
       <c r="AY292" t="n">
         <v>0.002034177222865882</v>
       </c>
-      <c r="AZ292" t="inlineStr">
+      <c r="AZ292" t="n">
+        <v>0.5279492689311287</v>
+      </c>
+      <c r="BA292" t="inlineStr">
+        <is>
+          <t>g__RUG420</t>
+        </is>
+      </c>
+      <c r="BB292" t="inlineStr">
         <is>
           <t>g__RUG420</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="inlineStr">
+      <c r="A293" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8128.fa</t>
         </is>
@@ -48005,14 +50332,22 @@
       <c r="AY293" t="n">
         <v>1.467609271775013e-12</v>
       </c>
-      <c r="AZ293" t="inlineStr">
+      <c r="AZ293" t="n">
+        <v>0.9902525071334131</v>
+      </c>
+      <c r="BA293" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB293" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="inlineStr">
+      <c r="A294" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT81560.fa</t>
         </is>
@@ -48167,14 +50502,22 @@
       <c r="AY294" t="n">
         <v>0.2321536710564469</v>
       </c>
-      <c r="AZ294" t="inlineStr">
+      <c r="AZ294" t="n">
+        <v>0.3466710242895234</v>
+      </c>
+      <c r="BA294" t="inlineStr">
+        <is>
+          <t>g__Clostridium_E</t>
+        </is>
+      </c>
+      <c r="BB294" t="inlineStr">
         <is>
           <t>g__Clostridium_E</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="inlineStr">
+      <c r="A295" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8165.fa</t>
         </is>
@@ -48329,14 +50672,22 @@
       <c r="AY295" t="n">
         <v>1.853769849177495e-06</v>
       </c>
-      <c r="AZ295" t="inlineStr">
+      <c r="AZ295" t="n">
+        <v>0.9330633009228192</v>
+      </c>
+      <c r="BA295" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB295" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="inlineStr">
+      <c r="A296" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT81880.fa</t>
         </is>
@@ -48491,14 +50842,22 @@
       <c r="AY296" t="n">
         <v>0.02435958232048388</v>
       </c>
-      <c r="AZ296" t="inlineStr">
+      <c r="AZ296" t="n">
+        <v>0.2672987238096841</v>
+      </c>
+      <c r="BA296" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB296" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="inlineStr">
+      <c r="A297" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT82203.fa</t>
         </is>
@@ -48653,14 +51012,22 @@
       <c r="AY297" t="n">
         <v>3.49870403755643e-09</v>
       </c>
-      <c r="AZ297" t="inlineStr">
+      <c r="AZ297" t="n">
+        <v>0.2871708914499894</v>
+      </c>
+      <c r="BA297" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB297" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="inlineStr">
+      <c r="A298" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT82239.fa</t>
         </is>
@@ -48815,14 +51182,22 @@
       <c r="AY298" t="n">
         <v>5.298779008706381e-12</v>
       </c>
-      <c r="AZ298" t="inlineStr">
+      <c r="AZ298" t="n">
+        <v>0.9900704530385843</v>
+      </c>
+      <c r="BA298" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB298" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="inlineStr">
+      <c r="A299" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT82295.fa</t>
         </is>
@@ -48977,14 +51352,22 @@
       <c r="AY299" t="n">
         <v>0.01534405602287107</v>
       </c>
-      <c r="AZ299" t="inlineStr">
+      <c r="AZ299" t="n">
+        <v>0.3278963388016614</v>
+      </c>
+      <c r="BA299" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB299" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="inlineStr">
+      <c r="A300" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8287.fa</t>
         </is>
@@ -49139,14 +51522,22 @@
       <c r="AY300" t="n">
         <v>8.052639719796693e-11</v>
       </c>
-      <c r="AZ300" t="inlineStr">
+      <c r="AZ300" t="n">
+        <v>0.991774702168564</v>
+      </c>
+      <c r="BA300" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB300" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="inlineStr">
+      <c r="A301" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83028.fa</t>
         </is>
@@ -49301,14 +51692,22 @@
       <c r="AY301" t="n">
         <v>1.4840911062802e-09</v>
       </c>
-      <c r="AZ301" t="inlineStr">
+      <c r="AZ301" t="n">
+        <v>0.8590845154204926</v>
+      </c>
+      <c r="BA301" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB301" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="inlineStr">
+      <c r="A302" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83390.fa</t>
         </is>
@@ -49463,14 +51862,22 @@
       <c r="AY302" t="n">
         <v>2.800363172990775e-10</v>
       </c>
-      <c r="AZ302" t="inlineStr">
+      <c r="AZ302" t="n">
+        <v>0.9550779555584717</v>
+      </c>
+      <c r="BA302" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB302" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="inlineStr">
+      <c r="A303" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83497.fa</t>
         </is>
@@ -49625,14 +52032,22 @@
       <c r="AY303" t="n">
         <v>4.606371322502937e-05</v>
       </c>
-      <c r="AZ303" t="inlineStr">
+      <c r="AZ303" t="n">
+        <v>0.922801255845821</v>
+      </c>
+      <c r="BA303" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB303" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="inlineStr">
+      <c r="A304" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83657.fa</t>
         </is>
@@ -49787,14 +52202,22 @@
       <c r="AY304" t="n">
         <v>6.480412887522168e-10</v>
       </c>
-      <c r="AZ304" t="inlineStr">
+      <c r="AZ304" t="n">
+        <v>0.2156295636734862</v>
+      </c>
+      <c r="BA304" t="inlineStr">
+        <is>
+          <t>g__UMGS263</t>
+        </is>
+      </c>
+      <c r="BB304" t="inlineStr">
         <is>
           <t>g__UMGS263</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="inlineStr">
+      <c r="A305" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83851.fa</t>
         </is>
@@ -49949,14 +52372,22 @@
       <c r="AY305" t="n">
         <v>1.264729795651027e-09</v>
       </c>
-      <c r="AZ305" t="inlineStr">
+      <c r="AZ305" t="n">
+        <v>0.2073851453947148</v>
+      </c>
+      <c r="BA305" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB305" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="inlineStr">
+      <c r="A306" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83863.fa</t>
         </is>
@@ -50111,14 +52542,22 @@
       <c r="AY306" t="n">
         <v>1.023538544120923e-10</v>
       </c>
-      <c r="AZ306" t="inlineStr">
+      <c r="AZ306" t="n">
+        <v>0.9561677294350576</v>
+      </c>
+      <c r="BA306" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB306" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="inlineStr">
+      <c r="A307" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8399.fa</t>
         </is>
@@ -50273,14 +52712,22 @@
       <c r="AY307" t="n">
         <v>0.004713536468897905</v>
       </c>
-      <c r="AZ307" t="inlineStr">
+      <c r="AZ307" t="n">
+        <v>0.2594607431946697</v>
+      </c>
+      <c r="BA307" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB307" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="inlineStr">
+      <c r="A308" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8428.fa</t>
         </is>
@@ -50435,14 +52882,22 @@
       <c r="AY308" t="n">
         <v>4.981705824279027e-11</v>
       </c>
-      <c r="AZ308" t="inlineStr">
+      <c r="AZ308" t="n">
+        <v>0.7205654294222892</v>
+      </c>
+      <c r="BA308" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB308" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="inlineStr">
+      <c r="A309" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8457.fa</t>
         </is>
@@ -50597,14 +53052,22 @@
       <c r="AY309" t="n">
         <v>2.966372380804935e-09</v>
       </c>
-      <c r="AZ309" t="inlineStr">
+      <c r="AZ309" t="n">
+        <v>0.9107786689844667</v>
+      </c>
+      <c r="BA309" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB309" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="inlineStr">
+      <c r="A310" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT84692.fa</t>
         </is>
@@ -50759,14 +53222,22 @@
       <c r="AY310" t="n">
         <v>2.639052214307157e-06</v>
       </c>
-      <c r="AZ310" t="inlineStr">
+      <c r="AZ310" t="n">
+        <v>0.9668202229402889</v>
+      </c>
+      <c r="BA310" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB310" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="inlineStr">
+      <c r="A311" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT84701.fa</t>
         </is>
@@ -50921,14 +53392,22 @@
       <c r="AY311" t="n">
         <v>3.734993785278477e-10</v>
       </c>
-      <c r="AZ311" t="inlineStr">
+      <c r="AZ311" t="n">
+        <v>0.8356274663244025</v>
+      </c>
+      <c r="BA311" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB311" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="inlineStr">
+      <c r="A312" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT84856.fa</t>
         </is>
@@ -51083,14 +53562,22 @@
       <c r="AY312" t="n">
         <v>6.732463625305089e-11</v>
       </c>
-      <c r="AZ312" t="inlineStr">
+      <c r="AZ312" t="n">
+        <v>0.7330141964726562</v>
+      </c>
+      <c r="BA312" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB312" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="inlineStr">
+      <c r="A313" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT84961.fa</t>
         </is>
@@ -51245,14 +53732,22 @@
       <c r="AY313" t="n">
         <v>7.355716734436697e-05</v>
       </c>
-      <c r="AZ313" t="inlineStr">
+      <c r="AZ313" t="n">
+        <v>0.8738537826827517</v>
+      </c>
+      <c r="BA313" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB313" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="inlineStr">
+      <c r="A314" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT85090.fa</t>
         </is>
@@ -51407,14 +53902,22 @@
       <c r="AY314" t="n">
         <v>2.764783046231647e-10</v>
       </c>
-      <c r="AZ314" t="inlineStr">
+      <c r="AZ314" t="n">
+        <v>0.5024634884227316</v>
+      </c>
+      <c r="BA314" t="inlineStr">
+        <is>
+          <t>g__UBA1081</t>
+        </is>
+      </c>
+      <c r="BB314" t="inlineStr">
         <is>
           <t>g__UBA1081</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="inlineStr">
+      <c r="A315" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT85125.fa</t>
         </is>
@@ -51569,14 +54072,22 @@
       <c r="AY315" t="n">
         <v>1.099864020233611e-09</v>
       </c>
-      <c r="AZ315" t="inlineStr">
+      <c r="AZ315" t="n">
+        <v>0.834197482992092</v>
+      </c>
+      <c r="BA315" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB315" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="inlineStr">
+      <c r="A316" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT85136.fa</t>
         </is>
@@ -51731,14 +54242,22 @@
       <c r="AY316" t="n">
         <v>4.635709023204052e-08</v>
       </c>
-      <c r="AZ316" t="inlineStr">
+      <c r="AZ316" t="n">
+        <v>0.9655794704183537</v>
+      </c>
+      <c r="BA316" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB316" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="inlineStr">
+      <c r="A317" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8521.fa</t>
         </is>
@@ -51893,14 +54412,22 @@
       <c r="AY317" t="n">
         <v>1.969033475591578e-11</v>
       </c>
-      <c r="AZ317" t="inlineStr">
+      <c r="AZ317" t="n">
+        <v>0.4758499428916627</v>
+      </c>
+      <c r="BA317" t="inlineStr">
+        <is>
+          <t>g__CAG-488</t>
+        </is>
+      </c>
+      <c r="BB317" t="inlineStr">
         <is>
           <t>g__CAG-488</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="inlineStr">
+      <c r="A318" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8523.fa</t>
         </is>
@@ -52055,14 +54582,22 @@
       <c r="AY318" t="n">
         <v>2.486784864440058e-11</v>
       </c>
-      <c r="AZ318" t="inlineStr">
+      <c r="AZ318" t="n">
+        <v>0.9871173299740366</v>
+      </c>
+      <c r="BA318" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB318" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="inlineStr">
+      <c r="A319" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8529.fa</t>
         </is>
@@ -52217,14 +54752,22 @@
       <c r="AY319" t="n">
         <v>3.420078486556411e-09</v>
       </c>
-      <c r="AZ319" t="inlineStr">
+      <c r="AZ319" t="n">
+        <v>0.936444650231695</v>
+      </c>
+      <c r="BA319" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB319" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="inlineStr">
+      <c r="A320" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8531.fa</t>
         </is>
@@ -52379,14 +54922,22 @@
       <c r="AY320" t="n">
         <v>4.873751040297244e-09</v>
       </c>
-      <c r="AZ320" t="inlineStr">
+      <c r="AZ320" t="n">
+        <v>0.8914700380896475</v>
+      </c>
+      <c r="BA320" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB320" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="inlineStr">
+      <c r="A321" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT85677.fa</t>
         </is>
@@ -52541,14 +55092,22 @@
       <c r="AY321" t="n">
         <v>5.969106034359054e-11</v>
       </c>
-      <c r="AZ321" t="inlineStr">
+      <c r="AZ321" t="n">
+        <v>0.9606455751170758</v>
+      </c>
+      <c r="BA321" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB321" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="inlineStr">
+      <c r="A322" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT85846.fa</t>
         </is>
@@ -52703,14 +55262,22 @@
       <c r="AY322" t="n">
         <v>2.932038213903488e-07</v>
       </c>
-      <c r="AZ322" t="inlineStr">
+      <c r="AZ322" t="n">
+        <v>0.9664722114583602</v>
+      </c>
+      <c r="BA322" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB322" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="inlineStr">
+      <c r="A323" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT86276.fa</t>
         </is>
@@ -52865,14 +55432,22 @@
       <c r="AY323" t="n">
         <v>4.406639461621129e-09</v>
       </c>
-      <c r="AZ323" t="inlineStr">
+      <c r="AZ323" t="n">
+        <v>0.9649841399072878</v>
+      </c>
+      <c r="BA323" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB323" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="inlineStr">
+      <c r="A324" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT86868.fa</t>
         </is>
@@ -53027,14 +55602,22 @@
       <c r="AY324" t="n">
         <v>3.621593719417653e-06</v>
       </c>
-      <c r="AZ324" t="inlineStr">
+      <c r="AZ324" t="n">
+        <v>0.3509594611079913</v>
+      </c>
+      <c r="BA324" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB324" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="inlineStr">
+      <c r="A325" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8687.fa</t>
         </is>
@@ -53189,14 +55772,22 @@
       <c r="AY325" t="n">
         <v>1.619449166511693e-11</v>
       </c>
-      <c r="AZ325" t="inlineStr">
+      <c r="AZ325" t="n">
+        <v>0.9851457378472879</v>
+      </c>
+      <c r="BA325" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB325" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="inlineStr">
+      <c r="A326" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87091.fa</t>
         </is>
@@ -53351,14 +55942,22 @@
       <c r="AY326" t="n">
         <v>2.029744147623478e-07</v>
       </c>
-      <c r="AZ326" t="inlineStr">
+      <c r="AZ326" t="n">
+        <v>0.298769214537105</v>
+      </c>
+      <c r="BA326" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB326" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="inlineStr">
+      <c r="A327" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87142.fa</t>
         </is>
@@ -53513,14 +56112,22 @@
       <c r="AY327" t="n">
         <v>1.889429239542329e-09</v>
       </c>
-      <c r="AZ327" t="inlineStr">
+      <c r="AZ327" t="n">
+        <v>0.9127672881290436</v>
+      </c>
+      <c r="BA327" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB327" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="inlineStr">
+      <c r="A328" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87253.fa</t>
         </is>
@@ -53675,14 +56282,22 @@
       <c r="AY328" t="n">
         <v>1.341675748951869e-12</v>
       </c>
-      <c r="AZ328" t="inlineStr">
+      <c r="AZ328" t="n">
+        <v>0.8514064089745831</v>
+      </c>
+      <c r="BA328" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB328" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="inlineStr">
+      <c r="A329" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87486.fa</t>
         </is>
@@ -53837,14 +56452,22 @@
       <c r="AY329" t="n">
         <v>5.066389254522622e-08</v>
       </c>
-      <c r="AZ329" t="inlineStr">
+      <c r="AZ329" t="n">
+        <v>0.2541991390629868</v>
+      </c>
+      <c r="BA329" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB329" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="inlineStr">
+      <c r="A330" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87573.fa</t>
         </is>
@@ -53999,14 +56622,22 @@
       <c r="AY330" t="n">
         <v>4.333600288973674e-07</v>
       </c>
-      <c r="AZ330" t="inlineStr">
+      <c r="AZ330" t="n">
+        <v>0.2698237003085827</v>
+      </c>
+      <c r="BA330" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB330" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="inlineStr">
+      <c r="A331" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87828.fa</t>
         </is>
@@ -54161,14 +56792,22 @@
       <c r="AY331" t="n">
         <v>2.971143153777909e-07</v>
       </c>
-      <c r="AZ331" t="inlineStr">
+      <c r="AZ331" t="n">
+        <v>0.2504854820530284</v>
+      </c>
+      <c r="BA331" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB331" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="inlineStr">
+      <c r="A332" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87861.fa</t>
         </is>
@@ -54323,14 +56962,22 @@
       <c r="AY332" t="n">
         <v>5.533476121085098e-07</v>
       </c>
-      <c r="AZ332" t="inlineStr">
+      <c r="AZ332" t="n">
+        <v>0.7489163207332045</v>
+      </c>
+      <c r="BA332" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB332" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="inlineStr">
+      <c r="A333" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8790.fa</t>
         </is>
@@ -54485,14 +57132,22 @@
       <c r="AY333" t="n">
         <v>0.03453717336154546</v>
       </c>
-      <c r="AZ333" t="inlineStr">
+      <c r="AZ333" t="n">
+        <v>0.2057920963949452</v>
+      </c>
+      <c r="BA333" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB333" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="inlineStr">
+      <c r="A334" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88085.fa</t>
         </is>
@@ -54647,14 +57302,22 @@
       <c r="AY334" t="n">
         <v>5.490474361087063e-07</v>
       </c>
-      <c r="AZ334" t="inlineStr">
+      <c r="AZ334" t="n">
+        <v>0.2993492564033545</v>
+      </c>
+      <c r="BA334" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB334" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="inlineStr">
+      <c r="A335" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88218.fa</t>
         </is>
@@ -54809,14 +57472,22 @@
       <c r="AY335" t="n">
         <v>9.500959726885932e-08</v>
       </c>
-      <c r="AZ335" t="inlineStr">
+      <c r="AZ335" t="n">
+        <v>0.3772456518229881</v>
+      </c>
+      <c r="BA335" t="inlineStr">
+        <is>
+          <t>g__UBA1081</t>
+        </is>
+      </c>
+      <c r="BB335" t="inlineStr">
         <is>
           <t>g__UBA1081</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="inlineStr">
+      <c r="A336" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88257.fa</t>
         </is>
@@ -54971,14 +57642,22 @@
       <c r="AY336" t="n">
         <v>2.655012506887768e-07</v>
       </c>
-      <c r="AZ336" t="inlineStr">
+      <c r="AZ336" t="n">
+        <v>0.3195031061229114</v>
+      </c>
+      <c r="BA336" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB336" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="inlineStr">
+      <c r="A337" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8839.fa</t>
         </is>
@@ -55133,14 +57812,22 @@
       <c r="AY337" t="n">
         <v>1.48854550155259e-09</v>
       </c>
-      <c r="AZ337" t="inlineStr">
+      <c r="AZ337" t="n">
+        <v>0.9090711261719197</v>
+      </c>
+      <c r="BA337" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB337" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="inlineStr">
+      <c r="A338" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88487.fa</t>
         </is>
@@ -55295,14 +57982,22 @@
       <c r="AY338" t="n">
         <v>3.689506891317102e-08</v>
       </c>
-      <c r="AZ338" t="inlineStr">
+      <c r="AZ338" t="n">
+        <v>0.9230761943122319</v>
+      </c>
+      <c r="BA338" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB338" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="inlineStr">
+      <c r="A339" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88679.fa</t>
         </is>
@@ -55457,14 +58152,22 @@
       <c r="AY339" t="n">
         <v>1.635301881395391e-07</v>
       </c>
-      <c r="AZ339" t="inlineStr">
+      <c r="AZ339" t="n">
+        <v>0.2603830207384892</v>
+      </c>
+      <c r="BA339" t="inlineStr">
+        <is>
+          <t>g__UMGS403</t>
+        </is>
+      </c>
+      <c r="BB339" t="inlineStr">
         <is>
           <t>g__UMGS403</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="inlineStr">
+      <c r="A340" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88824.fa</t>
         </is>
@@ -55619,14 +58322,22 @@
       <c r="AY340" t="n">
         <v>1.117086828496168e-11</v>
       </c>
-      <c r="AZ340" t="inlineStr">
+      <c r="AZ340" t="n">
+        <v>0.8821325294200093</v>
+      </c>
+      <c r="BA340" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB340" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="inlineStr">
+      <c r="A341" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88862.fa</t>
         </is>
@@ -55781,14 +58492,22 @@
       <c r="AY341" t="n">
         <v>3.728744656492555e-08</v>
       </c>
-      <c r="AZ341" t="inlineStr">
+      <c r="AZ341" t="n">
+        <v>0.2739782701455357</v>
+      </c>
+      <c r="BA341" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
+      <c r="BB341" t="inlineStr">
         <is>
           <t>g__CAG-180</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="inlineStr">
+      <c r="A342" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT8928.fa</t>
         </is>
@@ -55943,14 +58662,22 @@
       <c r="AY342" t="n">
         <v>1.784256814508879e-11</v>
       </c>
-      <c r="AZ342" t="inlineStr">
+      <c r="AZ342" t="n">
+        <v>0.8398664750427751</v>
+      </c>
+      <c r="BA342" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB342" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="inlineStr">
+      <c r="A343" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9005.fa</t>
         </is>
@@ -56105,14 +58832,22 @@
       <c r="AY343" t="n">
         <v>3.307655638137507e-11</v>
       </c>
-      <c r="AZ343" t="inlineStr">
+      <c r="AZ343" t="n">
+        <v>0.9916181501083906</v>
+      </c>
+      <c r="BA343" t="inlineStr">
+        <is>
+          <t>g__CAG-177</t>
+        </is>
+      </c>
+      <c r="BB343" t="inlineStr">
         <is>
           <t>g__CAG-177</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="inlineStr">
+      <c r="A344" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9158.fa</t>
         </is>
@@ -56267,14 +59002,22 @@
       <c r="AY344" t="n">
         <v>3.042502439477307e-11</v>
       </c>
-      <c r="AZ344" t="inlineStr">
+      <c r="AZ344" t="n">
+        <v>0.9333784825229019</v>
+      </c>
+      <c r="BA344" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R</t>
+        </is>
+      </c>
+      <c r="BB344" t="inlineStr">
         <is>
           <t>g__Eubacterium_R</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="inlineStr">
+      <c r="A345" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9176.fa</t>
         </is>
@@ -56429,14 +59172,22 @@
       <c r="AY345" t="n">
         <v>1.284715245121241e-09</v>
       </c>
-      <c r="AZ345" t="inlineStr">
+      <c r="AZ345" t="n">
+        <v>0.9215656929097391</v>
+      </c>
+      <c r="BA345" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB345" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="inlineStr">
+      <c r="A346" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9275.fa</t>
         </is>
@@ -56591,14 +59342,22 @@
       <c r="AY346" t="n">
         <v>9.618180191837694e-09</v>
       </c>
-      <c r="AZ346" t="inlineStr">
+      <c r="AZ346" t="n">
+        <v>0.9311271592680517</v>
+      </c>
+      <c r="BA346" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB346" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="inlineStr">
+      <c r="A347" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9435.fa</t>
         </is>
@@ -56753,14 +59512,22 @@
       <c r="AY347" t="n">
         <v>1.068315469471792e-07</v>
       </c>
-      <c r="AZ347" t="inlineStr">
+      <c r="AZ347" t="n">
+        <v>0.8755959988871267</v>
+      </c>
+      <c r="BA347" t="inlineStr">
+        <is>
+          <t>g__CAG-217</t>
+        </is>
+      </c>
+      <c r="BB347" t="inlineStr">
         <is>
           <t>g__CAG-217</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="inlineStr">
+      <c r="A348" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT9681.fa</t>
         </is>
@@ -56915,7 +59682,15 @@
       <c r="AY348" t="n">
         <v>5.373903221104317e-10</v>
       </c>
-      <c r="AZ348" t="inlineStr">
+      <c r="AZ348" t="n">
+        <v>0.9773858338220225</v>
+      </c>
+      <c r="BA348" t="inlineStr">
+        <is>
+          <t>g__Clostridium_A</t>
+        </is>
+      </c>
+      <c r="BB348" t="inlineStr">
         <is>
           <t>g__Clostridium_A</t>
         </is>

--- a/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
+++ b/outputs-HGR-r202/f__Acutalibacteraceae.xlsx
@@ -2742,7 +2742,7 @@
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>g__UBA1081</t>
+          <t>g__UBA1081(reject)</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>g__UBA1227</t>
+          <t>g__UBA1227(reject)</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>g__UMGS1591</t>
+          <t>g__UMGS1591(reject)</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>g__Eubacterium_R</t>
+          <t>g__Eubacterium_R(reject)</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="BB34" t="inlineStr">
         <is>
-          <t>g__RUG420</t>
+          <t>g__RUG420(reject)</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="BB38" t="inlineStr">
         <is>
-          <t>g__UMGS1591</t>
+          <t>g__UMGS1591(reject)</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="BB49" t="inlineStr">
         <is>
-          <t>g__UMGS1591</t>
+          <t>g__UMGS1591(reject)</t>
         </is>
       </c>
     </row>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="BB68" t="inlineStr">
         <is>
-          <t>g__Eubacterium_R</t>
+          <t>g__Eubacterium_R(reject)</t>
         </is>
       </c>
     </row>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="BB80" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="BB82" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="BB86" t="inlineStr">
         <is>
-          <t>g__UBA1227</t>
+          <t>g__UBA1227(reject)</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="BB113" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -19912,7 +19912,7 @@
       </c>
       <c r="BB114" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_E</t>
+          <t>g__Ruminococcus_E(reject)</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20932,7 @@
       </c>
       <c r="BB120" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="BB121" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="BB125" t="inlineStr">
         <is>
-          <t>g__Eubacterium_R</t>
+          <t>g__Eubacterium_R(reject)</t>
         </is>
       </c>
     </row>
@@ -23652,7 +23652,7 @@
       </c>
       <c r="BB136" t="inlineStr">
         <is>
-          <t>g__UBA1081</t>
+          <t>g__UBA1081(reject)</t>
         </is>
       </c>
     </row>
@@ -25182,7 +25182,7 @@
       </c>
       <c r="BB145" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -25862,7 +25862,7 @@
       </c>
       <c r="BB149" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="BB154" t="inlineStr">
         <is>
-          <t>g__UBA1417</t>
+          <t>g__UBA1417(reject)</t>
         </is>
       </c>
     </row>
@@ -29262,7 +29262,7 @@
       </c>
       <c r="BB169" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="BB171" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -29772,7 +29772,7 @@
       </c>
       <c r="BB172" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -30112,7 +30112,7 @@
       </c>
       <c r="BB174" t="inlineStr">
         <is>
-          <t>g__UMGS263</t>
+          <t>g__UMGS263(reject)</t>
         </is>
       </c>
     </row>
@@ -30282,7 +30282,7 @@
       </c>
       <c r="BB175" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -31132,7 +31132,7 @@
       </c>
       <c r="BB180" t="inlineStr">
         <is>
-          <t>g__CAG-488</t>
+          <t>g__CAG-488(reject)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="BB182" t="inlineStr">
         <is>
-          <t>g__UMGS263</t>
+          <t>g__UMGS263(reject)</t>
         </is>
       </c>
     </row>
@@ -33682,7 +33682,7 @@
       </c>
       <c r="BB195" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -34192,7 +34192,7 @@
       </c>
       <c r="BB198" t="inlineStr">
         <is>
-          <t>g__Eubacterium_R</t>
+          <t>g__Eubacterium_R(reject)</t>
         </is>
       </c>
     </row>
@@ -34362,7 +34362,7 @@
       </c>
       <c r="BB199" t="inlineStr">
         <is>
-          <t>g__CAG-964</t>
+          <t>g__CAG-964(reject)</t>
         </is>
       </c>
     </row>
@@ -35382,7 +35382,7 @@
       </c>
       <c r="BB205" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -35552,7 +35552,7 @@
       </c>
       <c r="BB206" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -35892,7 +35892,7 @@
       </c>
       <c r="BB208" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -36232,7 +36232,7 @@
       </c>
       <c r="BB210" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -36742,7 +36742,7 @@
       </c>
       <c r="BB213" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -37762,7 +37762,7 @@
       </c>
       <c r="BB219" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -38612,7 +38612,7 @@
       </c>
       <c r="BB224" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -40652,7 +40652,7 @@
       </c>
       <c r="BB236" t="inlineStr">
         <is>
-          <t>g__Eubacterium_R</t>
+          <t>g__Eubacterium_R(reject)</t>
         </is>
       </c>
     </row>
@@ -43882,7 +43882,7 @@
       </c>
       <c r="BB255" t="inlineStr">
         <is>
-          <t>g__UBA1081</t>
+          <t>g__UBA1081(reject)</t>
         </is>
       </c>
     </row>
@@ -46602,7 +46602,7 @@
       </c>
       <c r="BB271" t="inlineStr">
         <is>
-          <t>g__UBA1227</t>
+          <t>g__UBA1227(reject)</t>
         </is>
       </c>
     </row>
@@ -48642,7 +48642,7 @@
       </c>
       <c r="BB283" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_E</t>
+          <t>g__Ruminococcus_E(reject)</t>
         </is>
       </c>
     </row>
@@ -48812,7 +48812,7 @@
       </c>
       <c r="BB284" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -48982,7 +48982,7 @@
       </c>
       <c r="BB285" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -49152,7 +49152,7 @@
       </c>
       <c r="BB286" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -49492,7 +49492,7 @@
       </c>
       <c r="BB288" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -50002,7 +50002,7 @@
       </c>
       <c r="BB291" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="BB292" t="inlineStr">
         <is>
-          <t>g__RUG420</t>
+          <t>g__RUG420(reject)</t>
         </is>
       </c>
     </row>
@@ -50512,7 +50512,7 @@
       </c>
       <c r="BB294" t="inlineStr">
         <is>
-          <t>g__Clostridium_E</t>
+          <t>g__Clostridium_E(reject)</t>
         </is>
       </c>
     </row>
@@ -50852,7 +50852,7 @@
       </c>
       <c r="BB296" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -51022,7 +51022,7 @@
       </c>
       <c r="BB297" t="inlineStr">
         <is>
-          <t>g__CAG-177</t>
+          <t>g__CAG-177(reject)</t>
         </is>
       </c>
     </row>
@@ -51362,7 +51362,7 @@
       </c>
       <c r="BB299" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -52212,7 +52212,7 @@
       </c>
       <c r="BB304" t="inlineStr">
         <is>
-          <t>g__UMGS263</t>
+          <t>g__UMGS263(reject)</t>
         </is>
       </c>
     </row>
@@ -52382,7 +52382,7 @@
       </c>
       <c r="BB305" t="inlineStr">
         <is>
-          <t>g__CAG-217</t>
+          <t>g__CAG-217(reject)</t>
         </is>
       </c>
     </row>
@@ -52722,7 +52722,7 @@
       </c>
       <c r="BB307" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -53912,7 +53912,7 @@
       </c>
       <c r="BB314" t="inlineStr">
         <is>
-          <t>g__UBA1081</t>
+          <t>g__UBA1081(reject)</t>
         </is>
       </c>
     </row>
@@ -54422,7 +54422,7 @@
       </c>
       <c r="BB317" t="inlineStr">
         <is>
-          <t>g__CAG-488</t>
+          <t>g__CAG-488(reject)</t>
         </is>
       </c>
     </row>
@@ -55612,7 +55612,7 @@
       </c>
       <c r="BB324" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -55952,7 +55952,7 @@
       </c>
       <c r="BB326" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -56462,7 +56462,7 @@
       </c>
       <c r="BB329" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -56632,7 +56632,7 @@
       </c>
       <c r="BB330" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -56802,7 +56802,7 @@
       </c>
       <c r="BB331" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -57142,7 +57142,7 @@
       </c>
       <c r="BB333" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
@@ -57312,7 +57312,7 @@
       </c>
       <c r="BB334" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -57482,7 +57482,7 @@
       </c>
       <c r="BB335" t="inlineStr">
         <is>
-          <t>g__UBA1081</t>
+          <t>g__UBA1081(reject)</t>
         </is>
       </c>
     </row>
@@ -57652,7 +57652,7 @@
       </c>
       <c r="BB336" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -58162,7 +58162,7 @@
       </c>
       <c r="BB339" t="inlineStr">
         <is>
-          <t>g__UMGS403</t>
+          <t>g__UMGS403(reject)</t>
         </is>
       </c>
     </row>
@@ -58502,7 +58502,7 @@
       </c>
       <c r="BB341" t="inlineStr">
         <is>
-          <t>g__CAG-180</t>
+          <t>g__CAG-180(reject)</t>
         </is>
       </c>
     </row>
